--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7F9AD-79F2-40B5-BE4C-2DCEFC967D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779027F-EB72-435A-AFD6-872291EE8BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,12 +675,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +769,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +996,8 @@
   </sheetPr>
   <dimension ref="A1:AY1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1037,10 +1037,10 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1060,20 +1060,20 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
@@ -1084,53 +1084,53 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
     </row>
     <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
@@ -1141,53 +1141,53 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
     </row>
     <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
@@ -1198,53 +1198,53 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
     </row>
     <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
@@ -1256,53 +1256,53 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="35"/>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
     </row>
     <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
@@ -1314,332 +1314,332 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="33"/>
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="33"/>
+      <c r="AY6" s="33"/>
     </row>
     <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
     </row>
     <row r="8" spans="1:51" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <v>43997</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="39">
         <v>43999</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>44001</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <v>44003</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <v>44005</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="39">
         <v>44007</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="39">
         <v>44009</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="39">
         <v>44011</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="39">
         <v>44013</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="39">
         <v>44015</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="39">
         <v>44017</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="39">
         <v>44019</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="39">
         <v>44021</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="39">
         <v>44023</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="39">
         <v>44025</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="39">
         <v>44027</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="39">
         <v>44029</v>
       </c>
-      <c r="Y8" s="41">
+      <c r="Y8" s="39">
         <v>44031</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="39">
         <v>44033</v>
       </c>
-      <c r="AA8" s="41">
+      <c r="AA8" s="39">
         <v>44035</v>
       </c>
-      <c r="AB8" s="41">
+      <c r="AB8" s="39">
         <v>44037</v>
       </c>
-      <c r="AC8" s="41">
+      <c r="AC8" s="39">
         <v>44039</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="39">
         <v>44041</v>
       </c>
-      <c r="AE8" s="41">
+      <c r="AE8" s="39">
         <v>44043</v>
       </c>
-      <c r="AF8" s="41">
+      <c r="AF8" s="39">
         <v>44045</v>
       </c>
-      <c r="AG8" s="41">
+      <c r="AG8" s="39">
         <v>44047</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="39">
         <v>44049</v>
       </c>
-      <c r="AI8" s="41">
+      <c r="AI8" s="39">
         <v>44051</v>
       </c>
-      <c r="AJ8" s="41">
+      <c r="AJ8" s="39">
         <v>44053</v>
       </c>
-      <c r="AK8" s="41">
+      <c r="AK8" s="39">
         <v>44055</v>
       </c>
-      <c r="AL8" s="41">
+      <c r="AL8" s="39">
         <v>44057</v>
       </c>
-      <c r="AM8" s="41">
+      <c r="AM8" s="39">
         <v>44059</v>
       </c>
-      <c r="AN8" s="41">
+      <c r="AN8" s="39">
         <v>44061</v>
       </c>
-      <c r="AO8" s="41">
+      <c r="AO8" s="39">
         <v>44063</v>
       </c>
-      <c r="AP8" s="41">
+      <c r="AP8" s="39">
         <v>44065</v>
       </c>
-      <c r="AQ8" s="41">
+      <c r="AQ8" s="39">
         <v>44067</v>
       </c>
-      <c r="AR8" s="41">
+      <c r="AR8" s="39">
         <v>44069</v>
       </c>
-      <c r="AS8" s="41">
+      <c r="AS8" s="39">
         <v>44071</v>
       </c>
-      <c r="AT8" s="41">
+      <c r="AT8" s="39">
         <v>44073</v>
       </c>
-      <c r="AU8" s="41">
+      <c r="AU8" s="39">
         <v>44075</v>
       </c>
-      <c r="AV8" s="41">
+      <c r="AV8" s="39">
         <v>44077</v>
       </c>
-      <c r="AW8" s="41">
+      <c r="AW8" s="39">
         <v>44079</v>
       </c>
-      <c r="AX8" s="41">
+      <c r="AX8" s="39">
         <v>44081</v>
       </c>
-      <c r="AY8" s="41">
+      <c r="AY8" s="39">
         <v>44083</v>
       </c>
     </row>
     <row r="9" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="44"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="42"/>
     </row>
     <row r="10" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="44">
         <v>43997</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="44">
         <v>43998</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <f t="shared" ref="F10:F14" si="0">E10-D10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <v>1</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1682,31 +1682,31 @@
       <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
-      <c r="AY10" s="50"/>
-    </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY10" s="48"/>
+    </row>
+    <row r="11" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <v>43998</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>43999</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <v>1</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1748,32 +1748,32 @@
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="50"/>
+      <c r="AY11" s="48"/>
     </row>
     <row r="12" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="44">
         <v>43999</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="44">
         <v>44000</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <v>1</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1814,33 +1814,33 @@
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="50"/>
+      <c r="AY12" s="48"/>
     </row>
     <row r="13" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="44">
         <v>44000</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="44">
         <v>44001</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="46">
         <v>1</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1880,34 +1880,34 @@
       <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
-      <c r="AY13" s="50"/>
+      <c r="AY13" s="48"/>
     </row>
     <row r="14" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="44">
         <v>44001</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="44">
         <v>44002</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="46">
         <v>1</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="51"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1946,87 +1946,87 @@
       <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6"/>
-      <c r="AY14" s="50"/>
+      <c r="AY14" s="48"/>
     </row>
     <row r="15" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="43"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="43"/>
-      <c r="AM15" s="43"/>
-      <c r="AN15" s="43"/>
-      <c r="AO15" s="43"/>
-      <c r="AP15" s="43"/>
-      <c r="AQ15" s="43"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="43"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="44"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="42"/>
     </row>
     <row r="16" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="44">
         <v>44002</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="44">
         <v>44004</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="45">
         <f t="shared" ref="F16:F24" si="1">E16-D16</f>
         <v>2</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <v>1</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="49"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2035,9 +2035,9 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2067,33 +2067,33 @@
       <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6"/>
-      <c r="AY16" s="50"/>
+      <c r="AY16" s="48"/>
     </row>
     <row r="17" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="44">
         <v>44004</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="44">
         <v>44006</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="46">
         <v>1</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2101,9 +2101,9 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2133,43 +2133,43 @@
       <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6"/>
-      <c r="AY17" s="50"/>
+      <c r="AY17" s="48"/>
     </row>
     <row r="18" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="44">
         <v>44006</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="44">
         <v>44008</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="46">
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="49"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2199,27 +2199,27 @@
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6"/>
-      <c r="AY18" s="50"/>
+      <c r="AY18" s="48"/>
     </row>
     <row r="19" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="44">
         <v>44008</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="44">
         <v>44010</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <v>1</v>
       </c>
       <c r="H19" s="6"/>
@@ -2227,15 +2227,15 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="49"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2265,27 +2265,27 @@
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6"/>
-      <c r="AY19" s="50"/>
+      <c r="AY19" s="48"/>
     </row>
     <row r="20" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="44">
         <v>44010</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="44">
         <v>44012</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="46">
         <v>1</v>
       </c>
       <c r="H20" s="6"/>
@@ -2294,14 +2294,14 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="49"/>
+      <c r="N20" s="47"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2331,27 +2331,27 @@
       <c r="AV20" s="6"/>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6"/>
-      <c r="AY20" s="50"/>
+      <c r="AY20" s="48"/>
     </row>
     <row r="21" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="44">
         <v>44012</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="44">
         <v>44014</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="46">
         <v>1</v>
       </c>
       <c r="H21" s="6"/>
@@ -2361,13 +2361,13 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="49"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2397,27 +2397,27 @@
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6"/>
-      <c r="AY21" s="50"/>
+      <c r="AY21" s="48"/>
     </row>
     <row r="22" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="44">
         <v>44014</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="44">
         <v>44016</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="46">
         <v>1</v>
       </c>
       <c r="H22" s="6"/>
@@ -2428,12 +2428,12 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="49"/>
+      <c r="P22" s="47"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2463,27 +2463,27 @@
       <c r="AV22" s="6"/>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
-      <c r="AY22" s="50"/>
+      <c r="AY22" s="48"/>
     </row>
     <row r="23" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="44">
         <v>44016</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="44">
         <v>44018</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="46">
         <v>1</v>
       </c>
       <c r="H23" s="6"/>
@@ -2495,11 +2495,11 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2529,27 +2529,27 @@
       <c r="AV23" s="6"/>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6"/>
-      <c r="AY23" s="50"/>
+      <c r="AY23" s="48"/>
     </row>
     <row r="24" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="44">
         <v>44018</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="44">
         <v>44020</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <v>1</v>
       </c>
       <c r="H24" s="6"/>
@@ -2562,10 +2562,10 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2595,82 +2595,82 @@
       <c r="AV24" s="6"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
-      <c r="AY24" s="50"/>
+      <c r="AY24" s="48"/>
     </row>
     <row r="25" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="42"/>
     </row>
     <row r="26" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="44">
         <v>44020</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="44">
         <v>44021</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="45">
         <f>E26-D26</f>
         <v>1</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="46">
         <v>1</v>
       </c>
       <c r="H26" s="6"/>
@@ -2684,10 +2684,10 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="49"/>
+      <c r="S26" s="47"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="51"/>
+      <c r="V26" s="49"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -2716,27 +2716,27 @@
       <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
-      <c r="AY26" s="50"/>
+      <c r="AY26" s="48"/>
     </row>
     <row r="27" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="44">
         <v>44021</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="44">
         <v>44022</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="45">
         <f>E27-D27</f>
         <v>1</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="46">
         <v>1</v>
       </c>
       <c r="H27" s="6"/>
@@ -2751,10 +2751,10 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="49"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="51"/>
+      <c r="W27" s="49"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -2782,27 +2782,27 @@
       <c r="AV27" s="6"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
-      <c r="AY27" s="50"/>
+      <c r="AY27" s="48"/>
     </row>
     <row r="28" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="44">
         <v>44022</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="44">
         <v>44024</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="45">
         <f t="shared" ref="F28:F46" si="2">E28-D28</f>
         <v>2</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="56">
         <v>0.4</v>
       </c>
       <c r="H28" s="6"/>
@@ -2817,11 +2817,11 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="49"/>
+      <c r="T28" s="47"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="51"/>
+      <c r="X28" s="49"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -2848,27 +2848,26 @@
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
-      <c r="AY28" s="50"/>
+      <c r="AY28" s="48"/>
     </row>
     <row r="29" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="45" t="s">
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="44">
         <v>44024</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="44">
         <v>44026</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="57">
         <v>0.1</v>
       </c>
       <c r="H29" s="6"/>
@@ -2884,11 +2883,11 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="49"/>
+      <c r="U29" s="47"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="51"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -2914,27 +2913,27 @@
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
-      <c r="AY29" s="50"/>
+      <c r="AY29" s="48"/>
     </row>
     <row r="30" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>44026</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="44">
         <v>44027</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="57">
         <v>0.1</v>
       </c>
       <c r="H30" s="6"/>
@@ -2951,11 +2950,11 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="49"/>
+      <c r="V30" s="47"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -2980,27 +2979,27 @@
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
-      <c r="AY30" s="50"/>
+      <c r="AY30" s="48"/>
     </row>
     <row r="31" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="44">
         <v>44027</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="44">
         <v>44028</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="45">
         <f>E31-D31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="57">
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
@@ -3018,11 +3017,11 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="49"/>
+      <c r="W31" s="47"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
-      <c r="AA31" s="51"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
@@ -3046,27 +3045,27 @@
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
-      <c r="AY31" s="50"/>
+      <c r="AY31" s="48"/>
     </row>
     <row r="32" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="44">
         <v>44028</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="44">
         <v>44031</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="57">
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
@@ -3084,12 +3083,12 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="51"/>
+      <c r="AB32" s="49"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -3112,27 +3111,26 @@
       <c r="AV32" s="6"/>
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
-      <c r="AY32" s="50"/>
+      <c r="AY32" s="48"/>
     </row>
     <row r="33" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="44">
         <v>44031</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="44">
         <v>44034</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="57">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
@@ -3152,11 +3150,11 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="51"/>
+      <c r="AC33" s="49"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
@@ -3178,27 +3176,27 @@
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
       <c r="AX33" s="6"/>
-      <c r="AY33" s="50"/>
+      <c r="AY33" s="48"/>
     </row>
     <row r="34" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="44">
         <v>44034</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="44">
         <v>44036</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="57">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
@@ -3219,11 +3217,11 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="49"/>
+      <c r="Z34" s="47"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="51"/>
+      <c r="AD34" s="49"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
@@ -3244,27 +3242,27 @@
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
       <c r="AX34" s="6"/>
-      <c r="AY34" s="50"/>
+      <c r="AY34" s="48"/>
     </row>
     <row r="35" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="44">
         <v>44036</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="44">
         <v>44037</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="45">
         <f>E35-D35</f>
         <v>1</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="57">
         <v>0</v>
       </c>
       <c r="H35" s="6"/>
@@ -3286,11 +3284,11 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
-      <c r="AA35" s="49"/>
+      <c r="AA35" s="47"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="51"/>
+      <c r="AE35" s="49"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -3310,27 +3308,26 @@
       <c r="AV35" s="6"/>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
-      <c r="AY35" s="50"/>
+      <c r="AY35" s="48"/>
     </row>
     <row r="36" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="45" t="s">
+      <c r="B36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="44">
         <v>44037</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="44">
         <v>44040</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="57">
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
@@ -3353,11 +3350,11 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="51"/>
+      <c r="AF36" s="49"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -3376,27 +3373,27 @@
       <c r="AV36" s="6"/>
       <c r="AW36" s="6"/>
       <c r="AX36" s="6"/>
-      <c r="AY36" s="50"/>
+      <c r="AY36" s="48"/>
     </row>
     <row r="37" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="45" t="s">
+      <c r="B37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="44">
         <v>44040</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="44">
         <v>44043</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="57">
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
@@ -3420,11 +3417,11 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
-      <c r="AG37" s="51"/>
+      <c r="AG37" s="49"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
@@ -3442,27 +3439,27 @@
       <c r="AV37" s="6"/>
       <c r="AW37" s="6"/>
       <c r="AX37" s="6"/>
-      <c r="AY37" s="50"/>
+      <c r="AY37" s="48"/>
     </row>
     <row r="38" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="44">
         <v>44043</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="44">
         <v>44045</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="57">
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
@@ -3486,12 +3483,12 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="51"/>
+      <c r="AC38" s="49"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="49"/>
+      <c r="AE38" s="47"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="51"/>
+      <c r="AH38" s="49"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
@@ -3508,27 +3505,27 @@
       <c r="AV38" s="6"/>
       <c r="AW38" s="6"/>
       <c r="AX38" s="6"/>
-      <c r="AY38" s="50"/>
+      <c r="AY38" s="48"/>
     </row>
     <row r="39" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="44">
         <v>44045</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="44">
         <v>44046</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="45">
         <f>E39-D39</f>
         <v>1</v>
       </c>
-      <c r="G39" s="59">
+      <c r="G39" s="57">
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
@@ -3555,10 +3552,10 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="49"/>
+      <c r="AF39" s="47"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="51"/>
+      <c r="AI39" s="49"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
@@ -3574,27 +3571,27 @@
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
       <c r="AX39" s="6"/>
-      <c r="AY39" s="50"/>
+      <c r="AY39" s="48"/>
     </row>
     <row r="40" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="45" t="s">
+      <c r="B40" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="44">
         <v>44046</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="44">
         <v>44050</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="57">
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
@@ -3621,46 +3618,45 @@
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
-      <c r="AO40" s="51"/>
+      <c r="AO40" s="49"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
       <c r="AV40" s="6"/>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
-      <c r="AY40" s="50"/>
+      <c r="AY40" s="48"/>
     </row>
     <row r="41" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="44">
         <v>44050</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="44">
         <v>44054</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="57">
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
@@ -3690,43 +3686,43 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="49"/>
-      <c r="AK41" s="49"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
-      <c r="AV41" s="51"/>
-      <c r="AW41" s="51"/>
-      <c r="AX41" s="51"/>
-      <c r="AY41" s="50"/>
+      <c r="AV41" s="49"/>
+      <c r="AW41" s="49"/>
+      <c r="AX41" s="49"/>
+      <c r="AY41" s="48"/>
     </row>
     <row r="42" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="44">
         <v>44054</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="44">
         <v>44057</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="57">
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
@@ -3757,42 +3753,42 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="51"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="49"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
-      <c r="AW42" s="51"/>
-      <c r="AX42" s="51"/>
-      <c r="AY42" s="50"/>
+      <c r="AU42" s="49"/>
+      <c r="AV42" s="49"/>
+      <c r="AW42" s="49"/>
+      <c r="AX42" s="49"/>
+      <c r="AY42" s="48"/>
     </row>
     <row r="43" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="44">
         <v>44057</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="44">
         <v>44058</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="45">
         <f>E43-D43</f>
         <v>1</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="57">
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
@@ -3825,40 +3821,40 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="51"/>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="49"/>
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="51"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
-      <c r="AU43" s="51"/>
-      <c r="AV43" s="51"/>
-      <c r="AW43" s="51"/>
-      <c r="AX43" s="51"/>
-      <c r="AY43" s="50"/>
+      <c r="AU43" s="49"/>
+      <c r="AV43" s="49"/>
+      <c r="AW43" s="49"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="48"/>
     </row>
     <row r="44" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="45" t="s">
+      <c r="B44" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="44">
         <v>44058</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="44">
         <v>44061</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="57">
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
@@ -3891,9 +3887,9 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="49"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="51"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="49"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
@@ -3904,27 +3900,26 @@
       <c r="AV44" s="6"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
-      <c r="AY44" s="50"/>
+      <c r="AY44" s="48"/>
     </row>
     <row r="45" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="44">
         <v>44061</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="44">
         <v>44064</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G45" s="59">
+      <c r="G45" s="57">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
@@ -3959,8 +3954,8 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="6"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
@@ -3970,27 +3965,27 @@
       <c r="AV45" s="6"/>
       <c r="AW45" s="6"/>
       <c r="AX45" s="6"/>
-      <c r="AY45" s="50"/>
+      <c r="AY45" s="48"/>
     </row>
     <row r="46" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="44">
         <v>44064</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="44">
         <v>44066</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G46" s="59">
+      <c r="G46" s="57">
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
@@ -4026,8 +4021,8 @@
       <c r="AL46" s="6"/>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="51"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="49"/>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
@@ -4036,82 +4031,82 @@
       <c r="AV46" s="6"/>
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
-      <c r="AY46" s="50"/>
+      <c r="AY46" s="48"/>
     </row>
     <row r="47" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="43"/>
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="43"/>
-      <c r="AM47" s="43"/>
-      <c r="AN47" s="43"/>
-      <c r="AO47" s="43"/>
-      <c r="AP47" s="43"/>
-      <c r="AQ47" s="43"/>
-      <c r="AR47" s="43"/>
-      <c r="AS47" s="43"/>
-      <c r="AT47" s="43"/>
-      <c r="AU47" s="43"/>
-      <c r="AV47" s="43"/>
-      <c r="AW47" s="43"/>
-      <c r="AX47" s="43"/>
-      <c r="AY47" s="44"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41"/>
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="41"/>
+      <c r="AT47" s="41"/>
+      <c r="AU47" s="41"/>
+      <c r="AV47" s="41"/>
+      <c r="AW47" s="41"/>
+      <c r="AX47" s="41"/>
+      <c r="AY47" s="42"/>
     </row>
     <row r="48" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="44">
         <v>44066</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="44">
         <v>44069</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="45">
         <f>E48-D48</f>
         <v>3</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="57">
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
@@ -4142,42 +4137,42 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-      <c r="AJ48" s="51"/>
+      <c r="AJ48" s="49"/>
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
       <c r="AN48" s="6"/>
-      <c r="AO48" s="51"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
+      <c r="AO48" s="49"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
       <c r="AT48" s="6"/>
       <c r="AU48" s="6"/>
-      <c r="AV48" s="51"/>
-      <c r="AW48" s="51"/>
-      <c r="AX48" s="51"/>
-      <c r="AY48" s="50"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="49"/>
+      <c r="AX48" s="49"/>
+      <c r="AY48" s="48"/>
     </row>
     <row r="49" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="44">
         <v>44069</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="44">
         <v>44072</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="45">
         <f t="shared" ref="F49:F54" si="3">E49-D49</f>
         <v>3</v>
       </c>
-      <c r="G49" s="59">
+      <c r="G49" s="57">
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
@@ -4209,41 +4204,41 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="51"/>
+      <c r="AK49" s="49"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="6"/>
       <c r="AN49" s="6"/>
-      <c r="AO49" s="51"/>
-      <c r="AP49" s="51"/>
+      <c r="AO49" s="49"/>
+      <c r="AP49" s="49"/>
       <c r="AQ49" s="6"/>
-      <c r="AR49" s="49"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="51"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="49"/>
       <c r="AU49" s="6"/>
-      <c r="AV49" s="51"/>
-      <c r="AW49" s="51"/>
-      <c r="AX49" s="51"/>
-      <c r="AY49" s="50"/>
+      <c r="AV49" s="49"/>
+      <c r="AW49" s="49"/>
+      <c r="AX49" s="49"/>
+      <c r="AY49" s="48"/>
     </row>
     <row r="50" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="44">
         <v>44072</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="44">
         <v>44075</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="45">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G50" s="59">
+      <c r="G50" s="57">
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
@@ -4276,40 +4271,40 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-      <c r="AL50" s="51"/>
-      <c r="AM50" s="51"/>
-      <c r="AN50" s="51"/>
-      <c r="AO50" s="51"/>
-      <c r="AP50" s="51"/>
+      <c r="AL50" s="49"/>
+      <c r="AM50" s="49"/>
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="49"/>
+      <c r="AP50" s="49"/>
       <c r="AQ50" s="6"/>
       <c r="AR50" s="6"/>
-      <c r="AS50" s="51"/>
-      <c r="AT50" s="49"/>
-      <c r="AU50" s="51"/>
-      <c r="AV50" s="51"/>
-      <c r="AW50" s="51"/>
-      <c r="AX50" s="51"/>
-      <c r="AY50" s="50"/>
+      <c r="AS50" s="49"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="49"/>
+      <c r="AV50" s="49"/>
+      <c r="AW50" s="49"/>
+      <c r="AX50" s="49"/>
+      <c r="AY50" s="48"/>
     </row>
     <row r="51" spans="1:51" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="44">
         <v>44075</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="44">
         <v>44078</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F51" s="45">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="57">
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
@@ -4342,40 +4337,40 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
-      <c r="AL51" s="51"/>
-      <c r="AM51" s="51"/>
-      <c r="AN51" s="51"/>
-      <c r="AO51" s="51"/>
-      <c r="AP51" s="51"/>
+      <c r="AL51" s="49"/>
+      <c r="AM51" s="49"/>
+      <c r="AN51" s="49"/>
+      <c r="AO51" s="49"/>
+      <c r="AP51" s="49"/>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6"/>
-      <c r="AS51" s="51"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="49"/>
-      <c r="AV51" s="49"/>
-      <c r="AW51" s="51"/>
-      <c r="AX51" s="51"/>
-      <c r="AY51" s="50"/>
+      <c r="AS51" s="49"/>
+      <c r="AT51" s="49"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="49"/>
+      <c r="AX51" s="49"/>
+      <c r="AY51" s="48"/>
     </row>
     <row r="52" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="44">
         <v>44078</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="44">
         <v>44081</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="45">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="57">
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
@@ -4406,42 +4401,42 @@
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-      <c r="AJ52" s="51"/>
-      <c r="AK52" s="51"/>
-      <c r="AL52" s="51"/>
-      <c r="AM52" s="51"/>
-      <c r="AN52" s="51"/>
-      <c r="AO52" s="51"/>
-      <c r="AP52" s="51"/>
+      <c r="AJ52" s="49"/>
+      <c r="AK52" s="49"/>
+      <c r="AL52" s="49"/>
+      <c r="AM52" s="49"/>
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="49"/>
+      <c r="AP52" s="49"/>
       <c r="AQ52" s="6"/>
       <c r="AR52" s="6"/>
-      <c r="AS52" s="51"/>
+      <c r="AS52" s="49"/>
       <c r="AT52" s="6"/>
-      <c r="AU52" s="51"/>
-      <c r="AV52" s="49"/>
-      <c r="AW52" s="49"/>
-      <c r="AX52" s="51"/>
-      <c r="AY52" s="50"/>
+      <c r="AU52" s="49"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="49"/>
+      <c r="AY52" s="48"/>
     </row>
     <row r="53" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="44">
         <v>44081</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="44">
         <v>44084</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="45">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G53" s="59">
+      <c r="G53" s="57">
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
@@ -4474,40 +4469,40 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
-      <c r="AL53" s="51"/>
-      <c r="AM53" s="51"/>
-      <c r="AN53" s="51"/>
-      <c r="AO53" s="51"/>
-      <c r="AP53" s="51"/>
+      <c r="AL53" s="49"/>
+      <c r="AM53" s="49"/>
+      <c r="AN53" s="49"/>
+      <c r="AO53" s="49"/>
+      <c r="AP53" s="49"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
-      <c r="AS53" s="51"/>
+      <c r="AS53" s="49"/>
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
-      <c r="AV53" s="51"/>
-      <c r="AW53" s="51"/>
-      <c r="AX53" s="49"/>
-      <c r="AY53" s="50"/>
+      <c r="AV53" s="49"/>
+      <c r="AW53" s="49"/>
+      <c r="AX53" s="47"/>
+      <c r="AY53" s="48"/>
     </row>
     <row r="54" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="44">
         <v>44084</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="44">
         <v>44087</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="45">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G54" s="59">
+      <c r="G54" s="57">
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
@@ -4540,182 +4535,182 @@
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
-      <c r="AL54" s="51"/>
-      <c r="AM54" s="51"/>
-      <c r="AN54" s="51"/>
-      <c r="AO54" s="51"/>
-      <c r="AP54" s="51"/>
-      <c r="AQ54" s="51"/>
-      <c r="AR54" s="51"/>
-      <c r="AS54" s="51"/>
+      <c r="AL54" s="49"/>
+      <c r="AM54" s="49"/>
+      <c r="AN54" s="49"/>
+      <c r="AO54" s="49"/>
+      <c r="AP54" s="49"/>
+      <c r="AQ54" s="49"/>
+      <c r="AR54" s="49"/>
+      <c r="AS54" s="49"/>
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
-      <c r="AW54" s="51"/>
-      <c r="AX54" s="51"/>
-      <c r="AY54" s="62"/>
+      <c r="AW54" s="49"/>
+      <c r="AX54" s="49"/>
+      <c r="AY54" s="60"/>
     </row>
     <row r="55" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="65"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="63"/>
       <c r="G55" s="32"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="66"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66"/>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
-      <c r="AK55" s="66"/>
-      <c r="AL55" s="66"/>
-      <c r="AM55" s="66"/>
-      <c r="AN55" s="66"/>
-      <c r="AO55" s="66"/>
-      <c r="AP55" s="66"/>
-      <c r="AQ55" s="66"/>
-      <c r="AR55" s="66"/>
-      <c r="AS55" s="66"/>
-      <c r="AT55" s="66"/>
-      <c r="AU55" s="66"/>
-      <c r="AV55" s="66"/>
-      <c r="AW55" s="66"/>
-      <c r="AX55" s="66"/>
-      <c r="AY55" s="67"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="64"/>
+      <c r="AA55" s="64"/>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="64"/>
+      <c r="AD55" s="64"/>
+      <c r="AE55" s="64"/>
+      <c r="AF55" s="64"/>
+      <c r="AG55" s="64"/>
+      <c r="AH55" s="64"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="64"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="64"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="64"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="64"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="64"/>
+      <c r="AS55" s="64"/>
+      <c r="AT55" s="64"/>
+      <c r="AU55" s="64"/>
+      <c r="AV55" s="64"/>
+      <c r="AW55" s="64"/>
+      <c r="AX55" s="64"/>
+      <c r="AY55" s="65"/>
     </row>
     <row r="56" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="13"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="35"/>
-      <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-      <c r="AO56" s="35"/>
-      <c r="AP56" s="35"/>
-      <c r="AQ56" s="35"/>
-      <c r="AR56" s="35"/>
-      <c r="AS56" s="35"/>
-      <c r="AT56" s="35"/>
-      <c r="AU56" s="35"/>
-      <c r="AV56" s="35"/>
-      <c r="AW56" s="35"/>
-      <c r="AX56" s="35"/>
-      <c r="AY56" s="35"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="33"/>
+      <c r="AK56" s="33"/>
+      <c r="AL56" s="33"/>
+      <c r="AM56" s="33"/>
+      <c r="AN56" s="33"/>
+      <c r="AO56" s="33"/>
+      <c r="AP56" s="33"/>
+      <c r="AQ56" s="33"/>
+      <c r="AR56" s="33"/>
+      <c r="AS56" s="33"/>
+      <c r="AT56" s="33"/>
+      <c r="AU56" s="33"/>
+      <c r="AV56" s="33"/>
+      <c r="AW56" s="33"/>
+      <c r="AX56" s="33"/>
+      <c r="AY56" s="33"/>
     </row>
     <row r="57" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="13"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="35"/>
-      <c r="AM57" s="35"/>
-      <c r="AN57" s="35"/>
-      <c r="AO57" s="35"/>
-      <c r="AP57" s="35"/>
-      <c r="AQ57" s="35"/>
-      <c r="AR57" s="35"/>
-      <c r="AS57" s="35"/>
-      <c r="AT57" s="35"/>
-      <c r="AU57" s="35"/>
-      <c r="AV57" s="35"/>
-      <c r="AW57" s="35"/>
-      <c r="AX57" s="35"/>
-      <c r="AY57" s="35"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="33"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="33"/>
+      <c r="AK57" s="33"/>
+      <c r="AL57" s="33"/>
+      <c r="AM57" s="33"/>
+      <c r="AN57" s="33"/>
+      <c r="AO57" s="33"/>
+      <c r="AP57" s="33"/>
+      <c r="AQ57" s="33"/>
+      <c r="AR57" s="33"/>
+      <c r="AS57" s="33"/>
+      <c r="AT57" s="33"/>
+      <c r="AU57" s="33"/>
+      <c r="AV57" s="33"/>
+      <c r="AW57" s="33"/>
+      <c r="AX57" s="33"/>
+      <c r="AY57" s="33"/>
     </row>
     <row r="58" spans="1:51" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+      <c r="A58" s="33"/>
       <c r="C58" s="12" t="s">
         <v>8</v>
       </c>
@@ -4728,54 +4723,54 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="35"/>
-      <c r="AJ58" s="35"/>
-      <c r="AK58" s="35"/>
-      <c r="AL58" s="35"/>
-      <c r="AM58" s="35"/>
-      <c r="AN58" s="35"/>
-      <c r="AO58" s="35"/>
-      <c r="AP58" s="35"/>
-      <c r="AQ58" s="35"/>
-      <c r="AR58" s="35"/>
-      <c r="AS58" s="35"/>
-      <c r="AT58" s="35"/>
-      <c r="AU58" s="35"/>
-      <c r="AV58" s="35"/>
-      <c r="AW58" s="35"/>
-      <c r="AX58" s="35"/>
-      <c r="AY58" s="35"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="33"/>
+      <c r="AS58" s="33"/>
+      <c r="AT58" s="33"/>
+      <c r="AU58" s="33"/>
+      <c r="AV58" s="33"/>
+      <c r="AW58" s="33"/>
+      <c r="AX58" s="33"/>
+      <c r="AY58" s="33"/>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="33"/>
       <c r="C59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4791,54 +4786,54 @@
         <f>E59-D59</f>
         <v>4</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="35"/>
-      <c r="AW59" s="35"/>
-      <c r="AX59" s="35"/>
-      <c r="AY59" s="35"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="33"/>
+      <c r="AL59" s="33"/>
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="33"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33"/>
+      <c r="AT59" s="33"/>
+      <c r="AU59" s="33"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="33"/>
+      <c r="AY59" s="33"/>
     </row>
     <row r="60" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+      <c r="A60" s="33"/>
       <c r="C60" s="27" t="s">
         <v>21</v>
       </c>
@@ -4854,54 +4849,54 @@
         <f>E60-D60</f>
         <v>12</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="35"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="35"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="35"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="35"/>
-      <c r="AT60" s="35"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="35"/>
-      <c r="AW60" s="35"/>
-      <c r="AX60" s="35"/>
-      <c r="AY60" s="35"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="33"/>
+      <c r="AN60" s="33"/>
+      <c r="AO60" s="33"/>
+      <c r="AP60" s="33"/>
+      <c r="AQ60" s="33"/>
+      <c r="AR60" s="33"/>
+      <c r="AS60" s="33"/>
+      <c r="AT60" s="33"/>
+      <c r="AU60" s="33"/>
+      <c r="AV60" s="33"/>
+      <c r="AW60" s="33"/>
+      <c r="AX60" s="33"/>
+      <c r="AY60" s="33"/>
     </row>
     <row r="61" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+      <c r="A61" s="33"/>
       <c r="C61" s="27" t="s">
         <v>31</v>
       </c>
@@ -4917,54 +4912,54 @@
         <f>E61-D61</f>
         <v>56</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="35"/>
-      <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
-      <c r="AO61" s="35"/>
-      <c r="AP61" s="35"/>
-      <c r="AQ61" s="35"/>
-      <c r="AR61" s="35"/>
-      <c r="AS61" s="35"/>
-      <c r="AT61" s="35"/>
-      <c r="AU61" s="35"/>
-      <c r="AV61" s="35"/>
-      <c r="AW61" s="35"/>
-      <c r="AX61" s="35"/>
-      <c r="AY61" s="35"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="33"/>
+      <c r="AP61" s="33"/>
+      <c r="AQ61" s="33"/>
+      <c r="AR61" s="33"/>
+      <c r="AS61" s="33"/>
+      <c r="AT61" s="33"/>
+      <c r="AU61" s="33"/>
+      <c r="AV61" s="33"/>
+      <c r="AW61" s="33"/>
+      <c r="AX61" s="33"/>
+      <c r="AY61" s="33"/>
     </row>
     <row r="62" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+      <c r="A62" s="33"/>
       <c r="C62" s="28" t="s">
         <v>50</v>
       </c>
@@ -4980,1980 +4975,1980 @@
         <f>E62-D62</f>
         <v>21</v>
       </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="35"/>
-      <c r="AI62" s="35"/>
-      <c r="AJ62" s="35"/>
-      <c r="AK62" s="35"/>
-      <c r="AL62" s="35"/>
-      <c r="AM62" s="35"/>
-      <c r="AN62" s="35"/>
-      <c r="AO62" s="35"/>
-      <c r="AP62" s="35"/>
-      <c r="AQ62" s="35"/>
-      <c r="AR62" s="35"/>
-      <c r="AS62" s="35"/>
-      <c r="AT62" s="35"/>
-      <c r="AU62" s="35"/>
-      <c r="AV62" s="35"/>
-      <c r="AW62" s="35"/>
-      <c r="AX62" s="35"/>
-      <c r="AY62" s="35"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="33"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="33"/>
+      <c r="AN62" s="33"/>
+      <c r="AO62" s="33"/>
+      <c r="AP62" s="33"/>
+      <c r="AQ62" s="33"/>
+      <c r="AR62" s="33"/>
+      <c r="AS62" s="33"/>
+      <c r="AT62" s="33"/>
+      <c r="AU62" s="33"/>
+      <c r="AV62" s="33"/>
+      <c r="AW62" s="33"/>
+      <c r="AX62" s="33"/>
+      <c r="AY62" s="33"/>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="33"/>
       <c r="C63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="66">
         <f>E54</f>
         <v>44087</v>
       </c>
-      <c r="E63" s="34"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="35"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="35"/>
-      <c r="AQ63" s="35"/>
-      <c r="AR63" s="35"/>
-      <c r="AS63" s="35"/>
-      <c r="AT63" s="35"/>
-      <c r="AU63" s="35"/>
-      <c r="AV63" s="35"/>
-      <c r="AW63" s="35"/>
-      <c r="AX63" s="35"/>
-      <c r="AY63" s="35"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="33"/>
+      <c r="AL63" s="33"/>
+      <c r="AM63" s="33"/>
+      <c r="AN63" s="33"/>
+      <c r="AO63" s="33"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="33"/>
+      <c r="AS63" s="33"/>
+      <c r="AT63" s="33"/>
+      <c r="AU63" s="33"/>
+      <c r="AV63" s="33"/>
+      <c r="AW63" s="33"/>
+      <c r="AX63" s="33"/>
+      <c r="AY63" s="33"/>
     </row>
     <row r="64" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="13"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="35"/>
-      <c r="AQ64" s="35"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="35"/>
-      <c r="AT64" s="35"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
-      <c r="AW64" s="35"/>
-      <c r="AX64" s="35"/>
-      <c r="AY64" s="35"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="33"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="33"/>
+      <c r="AM64" s="33"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="33"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="33"/>
+      <c r="AU64" s="33"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="33"/>
+      <c r="AY64" s="33"/>
     </row>
     <row r="65" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="13"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="35"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="35"/>
-      <c r="AQ65" s="35"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="35"/>
-      <c r="AT65" s="35"/>
-      <c r="AU65" s="35"/>
-      <c r="AV65" s="35"/>
-      <c r="AW65" s="35"/>
-      <c r="AX65" s="35"/>
-      <c r="AY65" s="35"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="33"/>
+      <c r="AM65" s="33"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="33"/>
+      <c r="AU65" s="33"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="33"/>
+      <c r="AY65" s="33"/>
     </row>
     <row r="66" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="13"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="35"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="35"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="35"/>
-      <c r="AQ66" s="35"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
-      <c r="AT66" s="35"/>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
-      <c r="AW66" s="35"/>
-      <c r="AX66" s="35"/>
-      <c r="AY66" s="35"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33"/>
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33"/>
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="33"/>
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33"/>
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33"/>
+      <c r="AY66" s="33"/>
     </row>
     <row r="67" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="13"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35"/>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="35"/>
-      <c r="AQ67" s="35"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35"/>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35"/>
-      <c r="AY67" s="35"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33"/>
+      <c r="AI67" s="33"/>
+      <c r="AJ67" s="33"/>
+      <c r="AK67" s="33"/>
+      <c r="AL67" s="33"/>
+      <c r="AM67" s="33"/>
+      <c r="AN67" s="33"/>
+      <c r="AO67" s="33"/>
+      <c r="AP67" s="33"/>
+      <c r="AQ67" s="33"/>
+      <c r="AR67" s="33"/>
+      <c r="AS67" s="33"/>
+      <c r="AT67" s="33"/>
+      <c r="AU67" s="33"/>
+      <c r="AV67" s="33"/>
+      <c r="AW67" s="33"/>
+      <c r="AX67" s="33"/>
+      <c r="AY67" s="33"/>
     </row>
     <row r="68" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="13"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="35"/>
-      <c r="AH68" s="35"/>
-      <c r="AI68" s="35"/>
-      <c r="AJ68" s="35"/>
-      <c r="AK68" s="35"/>
-      <c r="AL68" s="35"/>
-      <c r="AM68" s="35"/>
-      <c r="AN68" s="35"/>
-      <c r="AO68" s="35"/>
-      <c r="AP68" s="35"/>
-      <c r="AQ68" s="35"/>
-      <c r="AR68" s="35"/>
-      <c r="AS68" s="35"/>
-      <c r="AT68" s="35"/>
-      <c r="AU68" s="35"/>
-      <c r="AV68" s="35"/>
-      <c r="AW68" s="35"/>
-      <c r="AX68" s="35"/>
-      <c r="AY68" s="35"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="33"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="33"/>
+      <c r="AG68" s="33"/>
+      <c r="AH68" s="33"/>
+      <c r="AI68" s="33"/>
+      <c r="AJ68" s="33"/>
+      <c r="AK68" s="33"/>
+      <c r="AL68" s="33"/>
+      <c r="AM68" s="33"/>
+      <c r="AN68" s="33"/>
+      <c r="AO68" s="33"/>
+      <c r="AP68" s="33"/>
+      <c r="AQ68" s="33"/>
+      <c r="AR68" s="33"/>
+      <c r="AS68" s="33"/>
+      <c r="AT68" s="33"/>
+      <c r="AU68" s="33"/>
+      <c r="AV68" s="33"/>
+      <c r="AW68" s="33"/>
+      <c r="AX68" s="33"/>
+      <c r="AY68" s="33"/>
     </row>
     <row r="69" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="13"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="35"/>
-      <c r="AM69" s="35"/>
-      <c r="AN69" s="35"/>
-      <c r="AO69" s="35"/>
-      <c r="AP69" s="35"/>
-      <c r="AQ69" s="35"/>
-      <c r="AR69" s="35"/>
-      <c r="AS69" s="35"/>
-      <c r="AT69" s="35"/>
-      <c r="AU69" s="35"/>
-      <c r="AV69" s="35"/>
-      <c r="AW69" s="35"/>
-      <c r="AX69" s="35"/>
-      <c r="AY69" s="35"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="33"/>
+      <c r="AI69" s="33"/>
+      <c r="AJ69" s="33"/>
+      <c r="AK69" s="33"/>
+      <c r="AL69" s="33"/>
+      <c r="AM69" s="33"/>
+      <c r="AN69" s="33"/>
+      <c r="AO69" s="33"/>
+      <c r="AP69" s="33"/>
+      <c r="AQ69" s="33"/>
+      <c r="AR69" s="33"/>
+      <c r="AS69" s="33"/>
+      <c r="AT69" s="33"/>
+      <c r="AU69" s="33"/>
+      <c r="AV69" s="33"/>
+      <c r="AW69" s="33"/>
+      <c r="AX69" s="33"/>
+      <c r="AY69" s="33"/>
     </row>
     <row r="70" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="13"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="35"/>
-      <c r="AI70" s="35"/>
-      <c r="AJ70" s="35"/>
-      <c r="AK70" s="35"/>
-      <c r="AL70" s="35"/>
-      <c r="AM70" s="35"/>
-      <c r="AN70" s="35"/>
-      <c r="AO70" s="35"/>
-      <c r="AP70" s="35"/>
-      <c r="AQ70" s="35"/>
-      <c r="AR70" s="35"/>
-      <c r="AS70" s="35"/>
-      <c r="AT70" s="35"/>
-      <c r="AU70" s="35"/>
-      <c r="AV70" s="35"/>
-      <c r="AW70" s="35"/>
-      <c r="AX70" s="35"/>
-      <c r="AY70" s="35"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="33"/>
+      <c r="AH70" s="33"/>
+      <c r="AI70" s="33"/>
+      <c r="AJ70" s="33"/>
+      <c r="AK70" s="33"/>
+      <c r="AL70" s="33"/>
+      <c r="AM70" s="33"/>
+      <c r="AN70" s="33"/>
+      <c r="AO70" s="33"/>
+      <c r="AP70" s="33"/>
+      <c r="AQ70" s="33"/>
+      <c r="AR70" s="33"/>
+      <c r="AS70" s="33"/>
+      <c r="AT70" s="33"/>
+      <c r="AU70" s="33"/>
+      <c r="AV70" s="33"/>
+      <c r="AW70" s="33"/>
+      <c r="AX70" s="33"/>
+      <c r="AY70" s="33"/>
     </row>
     <row r="71" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="13"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="35"/>
-      <c r="AM71" s="35"/>
-      <c r="AN71" s="35"/>
-      <c r="AO71" s="35"/>
-      <c r="AP71" s="35"/>
-      <c r="AQ71" s="35"/>
-      <c r="AR71" s="35"/>
-      <c r="AS71" s="35"/>
-      <c r="AT71" s="35"/>
-      <c r="AU71" s="35"/>
-      <c r="AV71" s="35"/>
-      <c r="AW71" s="35"/>
-      <c r="AX71" s="35"/>
-      <c r="AY71" s="35"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="33"/>
+      <c r="AG71" s="33"/>
+      <c r="AH71" s="33"/>
+      <c r="AI71" s="33"/>
+      <c r="AJ71" s="33"/>
+      <c r="AK71" s="33"/>
+      <c r="AL71" s="33"/>
+      <c r="AM71" s="33"/>
+      <c r="AN71" s="33"/>
+      <c r="AO71" s="33"/>
+      <c r="AP71" s="33"/>
+      <c r="AQ71" s="33"/>
+      <c r="AR71" s="33"/>
+      <c r="AS71" s="33"/>
+      <c r="AT71" s="33"/>
+      <c r="AU71" s="33"/>
+      <c r="AV71" s="33"/>
+      <c r="AW71" s="33"/>
+      <c r="AX71" s="33"/>
+      <c r="AY71" s="33"/>
     </row>
     <row r="72" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="13"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-      <c r="AC72" s="35"/>
-      <c r="AD72" s="35"/>
-      <c r="AE72" s="35"/>
-      <c r="AF72" s="35"/>
-      <c r="AG72" s="35"/>
-      <c r="AH72" s="35"/>
-      <c r="AI72" s="35"/>
-      <c r="AJ72" s="35"/>
-      <c r="AK72" s="35"/>
-      <c r="AL72" s="35"/>
-      <c r="AM72" s="35"/>
-      <c r="AN72" s="35"/>
-      <c r="AO72" s="35"/>
-      <c r="AP72" s="35"/>
-      <c r="AQ72" s="35"/>
-      <c r="AR72" s="35"/>
-      <c r="AS72" s="35"/>
-      <c r="AT72" s="35"/>
-      <c r="AU72" s="35"/>
-      <c r="AV72" s="35"/>
-      <c r="AW72" s="35"/>
-      <c r="AX72" s="35"/>
-      <c r="AY72" s="35"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="33"/>
+      <c r="AC72" s="33"/>
+      <c r="AD72" s="33"/>
+      <c r="AE72" s="33"/>
+      <c r="AF72" s="33"/>
+      <c r="AG72" s="33"/>
+      <c r="AH72" s="33"/>
+      <c r="AI72" s="33"/>
+      <c r="AJ72" s="33"/>
+      <c r="AK72" s="33"/>
+      <c r="AL72" s="33"/>
+      <c r="AM72" s="33"/>
+      <c r="AN72" s="33"/>
+      <c r="AO72" s="33"/>
+      <c r="AP72" s="33"/>
+      <c r="AQ72" s="33"/>
+      <c r="AR72" s="33"/>
+      <c r="AS72" s="33"/>
+      <c r="AT72" s="33"/>
+      <c r="AU72" s="33"/>
+      <c r="AV72" s="33"/>
+      <c r="AW72" s="33"/>
+      <c r="AX72" s="33"/>
+      <c r="AY72" s="33"/>
     </row>
     <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="13"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
-      <c r="AG73" s="35"/>
-      <c r="AH73" s="35"/>
-      <c r="AI73" s="35"/>
-      <c r="AJ73" s="35"/>
-      <c r="AK73" s="35"/>
-      <c r="AL73" s="35"/>
-      <c r="AM73" s="35"/>
-      <c r="AN73" s="35"/>
-      <c r="AO73" s="35"/>
-      <c r="AP73" s="35"/>
-      <c r="AQ73" s="35"/>
-      <c r="AR73" s="35"/>
-      <c r="AS73" s="35"/>
-      <c r="AT73" s="35"/>
-      <c r="AU73" s="35"/>
-      <c r="AV73" s="35"/>
-      <c r="AW73" s="35"/>
-      <c r="AX73" s="35"/>
-      <c r="AY73" s="35"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="33"/>
+      <c r="AD73" s="33"/>
+      <c r="AE73" s="33"/>
+      <c r="AF73" s="33"/>
+      <c r="AG73" s="33"/>
+      <c r="AH73" s="33"/>
+      <c r="AI73" s="33"/>
+      <c r="AJ73" s="33"/>
+      <c r="AK73" s="33"/>
+      <c r="AL73" s="33"/>
+      <c r="AM73" s="33"/>
+      <c r="AN73" s="33"/>
+      <c r="AO73" s="33"/>
+      <c r="AP73" s="33"/>
+      <c r="AQ73" s="33"/>
+      <c r="AR73" s="33"/>
+      <c r="AS73" s="33"/>
+      <c r="AT73" s="33"/>
+      <c r="AU73" s="33"/>
+      <c r="AV73" s="33"/>
+      <c r="AW73" s="33"/>
+      <c r="AX73" s="33"/>
+      <c r="AY73" s="33"/>
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="13"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="35"/>
-      <c r="AB74" s="35"/>
-      <c r="AC74" s="35"/>
-      <c r="AD74" s="35"/>
-      <c r="AE74" s="35"/>
-      <c r="AF74" s="35"/>
-      <c r="AG74" s="35"/>
-      <c r="AH74" s="35"/>
-      <c r="AI74" s="35"/>
-      <c r="AJ74" s="35"/>
-      <c r="AK74" s="35"/>
-      <c r="AL74" s="35"/>
-      <c r="AM74" s="35"/>
-      <c r="AN74" s="35"/>
-      <c r="AO74" s="35"/>
-      <c r="AP74" s="35"/>
-      <c r="AQ74" s="35"/>
-      <c r="AR74" s="35"/>
-      <c r="AS74" s="35"/>
-      <c r="AT74" s="35"/>
-      <c r="AU74" s="35"/>
-      <c r="AV74" s="35"/>
-      <c r="AW74" s="35"/>
-      <c r="AX74" s="35"/>
-      <c r="AY74" s="35"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="33"/>
+      <c r="AG74" s="33"/>
+      <c r="AH74" s="33"/>
+      <c r="AI74" s="33"/>
+      <c r="AJ74" s="33"/>
+      <c r="AK74" s="33"/>
+      <c r="AL74" s="33"/>
+      <c r="AM74" s="33"/>
+      <c r="AN74" s="33"/>
+      <c r="AO74" s="33"/>
+      <c r="AP74" s="33"/>
+      <c r="AQ74" s="33"/>
+      <c r="AR74" s="33"/>
+      <c r="AS74" s="33"/>
+      <c r="AT74" s="33"/>
+      <c r="AU74" s="33"/>
+      <c r="AV74" s="33"/>
+      <c r="AW74" s="33"/>
+      <c r="AX74" s="33"/>
+      <c r="AY74" s="33"/>
     </row>
     <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="13"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-      <c r="AA75" s="35"/>
-      <c r="AB75" s="35"/>
-      <c r="AC75" s="35"/>
-      <c r="AD75" s="35"/>
-      <c r="AE75" s="35"/>
-      <c r="AF75" s="35"/>
-      <c r="AG75" s="35"/>
-      <c r="AH75" s="35"/>
-      <c r="AI75" s="35"/>
-      <c r="AJ75" s="35"/>
-      <c r="AK75" s="35"/>
-      <c r="AL75" s="35"/>
-      <c r="AM75" s="35"/>
-      <c r="AN75" s="35"/>
-      <c r="AO75" s="35"/>
-      <c r="AP75" s="35"/>
-      <c r="AQ75" s="35"/>
-      <c r="AR75" s="35"/>
-      <c r="AS75" s="35"/>
-      <c r="AT75" s="35"/>
-      <c r="AU75" s="35"/>
-      <c r="AV75" s="35"/>
-      <c r="AW75" s="35"/>
-      <c r="AX75" s="35"/>
-      <c r="AY75" s="35"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="33"/>
+      <c r="AG75" s="33"/>
+      <c r="AH75" s="33"/>
+      <c r="AI75" s="33"/>
+      <c r="AJ75" s="33"/>
+      <c r="AK75" s="33"/>
+      <c r="AL75" s="33"/>
+      <c r="AM75" s="33"/>
+      <c r="AN75" s="33"/>
+      <c r="AO75" s="33"/>
+      <c r="AP75" s="33"/>
+      <c r="AQ75" s="33"/>
+      <c r="AR75" s="33"/>
+      <c r="AS75" s="33"/>
+      <c r="AT75" s="33"/>
+      <c r="AU75" s="33"/>
+      <c r="AV75" s="33"/>
+      <c r="AW75" s="33"/>
+      <c r="AX75" s="33"/>
+      <c r="AY75" s="33"/>
     </row>
     <row r="76" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="13"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
-      <c r="AA76" s="35"/>
-      <c r="AB76" s="35"/>
-      <c r="AC76" s="35"/>
-      <c r="AD76" s="35"/>
-      <c r="AE76" s="35"/>
-      <c r="AF76" s="35"/>
-      <c r="AG76" s="35"/>
-      <c r="AH76" s="35"/>
-      <c r="AI76" s="35"/>
-      <c r="AJ76" s="35"/>
-      <c r="AK76" s="35"/>
-      <c r="AL76" s="35"/>
-      <c r="AM76" s="35"/>
-      <c r="AN76" s="35"/>
-      <c r="AO76" s="35"/>
-      <c r="AP76" s="35"/>
-      <c r="AQ76" s="35"/>
-      <c r="AR76" s="35"/>
-      <c r="AS76" s="35"/>
-      <c r="AT76" s="35"/>
-      <c r="AU76" s="35"/>
-      <c r="AV76" s="35"/>
-      <c r="AW76" s="35"/>
-      <c r="AX76" s="35"/>
-      <c r="AY76" s="35"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="33"/>
+      <c r="AG76" s="33"/>
+      <c r="AH76" s="33"/>
+      <c r="AI76" s="33"/>
+      <c r="AJ76" s="33"/>
+      <c r="AK76" s="33"/>
+      <c r="AL76" s="33"/>
+      <c r="AM76" s="33"/>
+      <c r="AN76" s="33"/>
+      <c r="AO76" s="33"/>
+      <c r="AP76" s="33"/>
+      <c r="AQ76" s="33"/>
+      <c r="AR76" s="33"/>
+      <c r="AS76" s="33"/>
+      <c r="AT76" s="33"/>
+      <c r="AU76" s="33"/>
+      <c r="AV76" s="33"/>
+      <c r="AW76" s="33"/>
+      <c r="AX76" s="33"/>
+      <c r="AY76" s="33"/>
     </row>
     <row r="77" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="13"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35"/>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
-      <c r="AC77" s="35"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
-      <c r="AG77" s="35"/>
-      <c r="AH77" s="35"/>
-      <c r="AI77" s="35"/>
-      <c r="AJ77" s="35"/>
-      <c r="AK77" s="35"/>
-      <c r="AL77" s="35"/>
-      <c r="AM77" s="35"/>
-      <c r="AN77" s="35"/>
-      <c r="AO77" s="35"/>
-      <c r="AP77" s="35"/>
-      <c r="AQ77" s="35"/>
-      <c r="AR77" s="35"/>
-      <c r="AS77" s="35"/>
-      <c r="AT77" s="35"/>
-      <c r="AU77" s="35"/>
-      <c r="AV77" s="35"/>
-      <c r="AW77" s="35"/>
-      <c r="AX77" s="35"/>
-      <c r="AY77" s="35"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="33"/>
+      <c r="AC77" s="33"/>
+      <c r="AD77" s="33"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="33"/>
+      <c r="AG77" s="33"/>
+      <c r="AH77" s="33"/>
+      <c r="AI77" s="33"/>
+      <c r="AJ77" s="33"/>
+      <c r="AK77" s="33"/>
+      <c r="AL77" s="33"/>
+      <c r="AM77" s="33"/>
+      <c r="AN77" s="33"/>
+      <c r="AO77" s="33"/>
+      <c r="AP77" s="33"/>
+      <c r="AQ77" s="33"/>
+      <c r="AR77" s="33"/>
+      <c r="AS77" s="33"/>
+      <c r="AT77" s="33"/>
+      <c r="AU77" s="33"/>
+      <c r="AV77" s="33"/>
+      <c r="AW77" s="33"/>
+      <c r="AX77" s="33"/>
+      <c r="AY77" s="33"/>
     </row>
     <row r="78" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="13"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
-      <c r="AC78" s="35"/>
-      <c r="AD78" s="35"/>
-      <c r="AE78" s="35"/>
-      <c r="AF78" s="35"/>
-      <c r="AG78" s="35"/>
-      <c r="AH78" s="35"/>
-      <c r="AI78" s="35"/>
-      <c r="AJ78" s="35"/>
-      <c r="AK78" s="35"/>
-      <c r="AL78" s="35"/>
-      <c r="AM78" s="35"/>
-      <c r="AN78" s="35"/>
-      <c r="AO78" s="35"/>
-      <c r="AP78" s="35"/>
-      <c r="AQ78" s="35"/>
-      <c r="AR78" s="35"/>
-      <c r="AS78" s="35"/>
-      <c r="AT78" s="35"/>
-      <c r="AU78" s="35"/>
-      <c r="AV78" s="35"/>
-      <c r="AW78" s="35"/>
-      <c r="AX78" s="35"/>
-      <c r="AY78" s="35"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="33"/>
+      <c r="AE78" s="33"/>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="33"/>
+      <c r="AH78" s="33"/>
+      <c r="AI78" s="33"/>
+      <c r="AJ78" s="33"/>
+      <c r="AK78" s="33"/>
+      <c r="AL78" s="33"/>
+      <c r="AM78" s="33"/>
+      <c r="AN78" s="33"/>
+      <c r="AO78" s="33"/>
+      <c r="AP78" s="33"/>
+      <c r="AQ78" s="33"/>
+      <c r="AR78" s="33"/>
+      <c r="AS78" s="33"/>
+      <c r="AT78" s="33"/>
+      <c r="AU78" s="33"/>
+      <c r="AV78" s="33"/>
+      <c r="AW78" s="33"/>
+      <c r="AX78" s="33"/>
+      <c r="AY78" s="33"/>
     </row>
     <row r="79" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="13"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="35"/>
-      <c r="Z79" s="35"/>
-      <c r="AA79" s="35"/>
-      <c r="AB79" s="35"/>
-      <c r="AC79" s="35"/>
-      <c r="AD79" s="35"/>
-      <c r="AE79" s="35"/>
-      <c r="AF79" s="35"/>
-      <c r="AG79" s="35"/>
-      <c r="AH79" s="35"/>
-      <c r="AI79" s="35"/>
-      <c r="AJ79" s="35"/>
-      <c r="AK79" s="35"/>
-      <c r="AL79" s="35"/>
-      <c r="AM79" s="35"/>
-      <c r="AN79" s="35"/>
-      <c r="AO79" s="35"/>
-      <c r="AP79" s="35"/>
-      <c r="AQ79" s="35"/>
-      <c r="AR79" s="35"/>
-      <c r="AS79" s="35"/>
-      <c r="AT79" s="35"/>
-      <c r="AU79" s="35"/>
-      <c r="AV79" s="35"/>
-      <c r="AW79" s="35"/>
-      <c r="AX79" s="35"/>
-      <c r="AY79" s="35"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
+      <c r="AB79" s="33"/>
+      <c r="AC79" s="33"/>
+      <c r="AD79" s="33"/>
+      <c r="AE79" s="33"/>
+      <c r="AF79" s="33"/>
+      <c r="AG79" s="33"/>
+      <c r="AH79" s="33"/>
+      <c r="AI79" s="33"/>
+      <c r="AJ79" s="33"/>
+      <c r="AK79" s="33"/>
+      <c r="AL79" s="33"/>
+      <c r="AM79" s="33"/>
+      <c r="AN79" s="33"/>
+      <c r="AO79" s="33"/>
+      <c r="AP79" s="33"/>
+      <c r="AQ79" s="33"/>
+      <c r="AR79" s="33"/>
+      <c r="AS79" s="33"/>
+      <c r="AT79" s="33"/>
+      <c r="AU79" s="33"/>
+      <c r="AV79" s="33"/>
+      <c r="AW79" s="33"/>
+      <c r="AX79" s="33"/>
+      <c r="AY79" s="33"/>
     </row>
     <row r="80" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="13"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="35"/>
-      <c r="AQ80" s="35"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="35"/>
-      <c r="AX80" s="35"/>
-      <c r="AY80" s="35"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="33"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="33"/>
+      <c r="AB80" s="33"/>
+      <c r="AC80" s="33"/>
+      <c r="AD80" s="33"/>
+      <c r="AE80" s="33"/>
+      <c r="AF80" s="33"/>
+      <c r="AG80" s="33"/>
+      <c r="AH80" s="33"/>
+      <c r="AI80" s="33"/>
+      <c r="AJ80" s="33"/>
+      <c r="AK80" s="33"/>
+      <c r="AL80" s="33"/>
+      <c r="AM80" s="33"/>
+      <c r="AN80" s="33"/>
+      <c r="AO80" s="33"/>
+      <c r="AP80" s="33"/>
+      <c r="AQ80" s="33"/>
+      <c r="AR80" s="33"/>
+      <c r="AS80" s="33"/>
+      <c r="AT80" s="33"/>
+      <c r="AU80" s="33"/>
+      <c r="AV80" s="33"/>
+      <c r="AW80" s="33"/>
+      <c r="AX80" s="33"/>
+      <c r="AY80" s="33"/>
     </row>
     <row r="81" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="13"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-      <c r="AJ81" s="35"/>
-      <c r="AK81" s="35"/>
-      <c r="AL81" s="35"/>
-      <c r="AM81" s="35"/>
-      <c r="AN81" s="35"/>
-      <c r="AO81" s="35"/>
-      <c r="AP81" s="35"/>
-      <c r="AQ81" s="35"/>
-      <c r="AR81" s="35"/>
-      <c r="AS81" s="35"/>
-      <c r="AT81" s="35"/>
-      <c r="AU81" s="35"/>
-      <c r="AV81" s="35"/>
-      <c r="AW81" s="35"/>
-      <c r="AX81" s="35"/>
-      <c r="AY81" s="35"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
+      <c r="AB81" s="33"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="33"/>
+      <c r="AE81" s="33"/>
+      <c r="AF81" s="33"/>
+      <c r="AG81" s="33"/>
+      <c r="AH81" s="33"/>
+      <c r="AI81" s="33"/>
+      <c r="AJ81" s="33"/>
+      <c r="AK81" s="33"/>
+      <c r="AL81" s="33"/>
+      <c r="AM81" s="33"/>
+      <c r="AN81" s="33"/>
+      <c r="AO81" s="33"/>
+      <c r="AP81" s="33"/>
+      <c r="AQ81" s="33"/>
+      <c r="AR81" s="33"/>
+      <c r="AS81" s="33"/>
+      <c r="AT81" s="33"/>
+      <c r="AU81" s="33"/>
+      <c r="AV81" s="33"/>
+      <c r="AW81" s="33"/>
+      <c r="AX81" s="33"/>
+      <c r="AY81" s="33"/>
     </row>
     <row r="82" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="13"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="35"/>
-      <c r="AQ82" s="35"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="35"/>
-      <c r="AX82" s="35"/>
-      <c r="AY82" s="35"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="33"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="33"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="33"/>
+      <c r="AI82" s="33"/>
+      <c r="AJ82" s="33"/>
+      <c r="AK82" s="33"/>
+      <c r="AL82" s="33"/>
+      <c r="AM82" s="33"/>
+      <c r="AN82" s="33"/>
+      <c r="AO82" s="33"/>
+      <c r="AP82" s="33"/>
+      <c r="AQ82" s="33"/>
+      <c r="AR82" s="33"/>
+      <c r="AS82" s="33"/>
+      <c r="AT82" s="33"/>
+      <c r="AU82" s="33"/>
+      <c r="AV82" s="33"/>
+      <c r="AW82" s="33"/>
+      <c r="AX82" s="33"/>
+      <c r="AY82" s="33"/>
     </row>
     <row r="83" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="13"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="35"/>
-      <c r="AI83" s="35"/>
-      <c r="AJ83" s="35"/>
-      <c r="AK83" s="35"/>
-      <c r="AL83" s="35"/>
-      <c r="AM83" s="35"/>
-      <c r="AN83" s="35"/>
-      <c r="AO83" s="35"/>
-      <c r="AP83" s="35"/>
-      <c r="AQ83" s="35"/>
-      <c r="AR83" s="35"/>
-      <c r="AS83" s="35"/>
-      <c r="AT83" s="35"/>
-      <c r="AU83" s="35"/>
-      <c r="AV83" s="35"/>
-      <c r="AW83" s="35"/>
-      <c r="AX83" s="35"/>
-      <c r="AY83" s="35"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
+      <c r="AG83" s="33"/>
+      <c r="AH83" s="33"/>
+      <c r="AI83" s="33"/>
+      <c r="AJ83" s="33"/>
+      <c r="AK83" s="33"/>
+      <c r="AL83" s="33"/>
+      <c r="AM83" s="33"/>
+      <c r="AN83" s="33"/>
+      <c r="AO83" s="33"/>
+      <c r="AP83" s="33"/>
+      <c r="AQ83" s="33"/>
+      <c r="AR83" s="33"/>
+      <c r="AS83" s="33"/>
+      <c r="AT83" s="33"/>
+      <c r="AU83" s="33"/>
+      <c r="AV83" s="33"/>
+      <c r="AW83" s="33"/>
+      <c r="AX83" s="33"/>
+      <c r="AY83" s="33"/>
     </row>
     <row r="84" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="13"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35"/>
-      <c r="AI84" s="35"/>
-      <c r="AJ84" s="35"/>
-      <c r="AK84" s="35"/>
-      <c r="AL84" s="35"/>
-      <c r="AM84" s="35"/>
-      <c r="AN84" s="35"/>
-      <c r="AO84" s="35"/>
-      <c r="AP84" s="35"/>
-      <c r="AQ84" s="35"/>
-      <c r="AR84" s="35"/>
-      <c r="AS84" s="35"/>
-      <c r="AT84" s="35"/>
-      <c r="AU84" s="35"/>
-      <c r="AV84" s="35"/>
-      <c r="AW84" s="35"/>
-      <c r="AX84" s="35"/>
-      <c r="AY84" s="35"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="33"/>
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="33"/>
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="33"/>
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="33"/>
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="33"/>
+      <c r="AY84" s="33"/>
     </row>
     <row r="85" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="13"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
-      <c r="AI85" s="35"/>
-      <c r="AJ85" s="35"/>
-      <c r="AK85" s="35"/>
-      <c r="AL85" s="35"/>
-      <c r="AM85" s="35"/>
-      <c r="AN85" s="35"/>
-      <c r="AO85" s="35"/>
-      <c r="AP85" s="35"/>
-      <c r="AQ85" s="35"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="35"/>
-      <c r="AT85" s="35"/>
-      <c r="AU85" s="35"/>
-      <c r="AV85" s="35"/>
-      <c r="AW85" s="35"/>
-      <c r="AX85" s="35"/>
-      <c r="AY85" s="35"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
+      <c r="AB85" s="33"/>
+      <c r="AC85" s="33"/>
+      <c r="AD85" s="33"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="33"/>
+      <c r="AG85" s="33"/>
+      <c r="AH85" s="33"/>
+      <c r="AI85" s="33"/>
+      <c r="AJ85" s="33"/>
+      <c r="AK85" s="33"/>
+      <c r="AL85" s="33"/>
+      <c r="AM85" s="33"/>
+      <c r="AN85" s="33"/>
+      <c r="AO85" s="33"/>
+      <c r="AP85" s="33"/>
+      <c r="AQ85" s="33"/>
+      <c r="AR85" s="33"/>
+      <c r="AS85" s="33"/>
+      <c r="AT85" s="33"/>
+      <c r="AU85" s="33"/>
+      <c r="AV85" s="33"/>
+      <c r="AW85" s="33"/>
+      <c r="AX85" s="33"/>
+      <c r="AY85" s="33"/>
     </row>
     <row r="86" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="13"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
-      <c r="AJ86" s="35"/>
-      <c r="AK86" s="35"/>
-      <c r="AL86" s="35"/>
-      <c r="AM86" s="35"/>
-      <c r="AN86" s="35"/>
-      <c r="AO86" s="35"/>
-      <c r="AP86" s="35"/>
-      <c r="AQ86" s="35"/>
-      <c r="AR86" s="35"/>
-      <c r="AS86" s="35"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+      <c r="AB86" s="33"/>
+      <c r="AC86" s="33"/>
+      <c r="AD86" s="33"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="33"/>
+      <c r="AG86" s="33"/>
+      <c r="AH86" s="33"/>
+      <c r="AI86" s="33"/>
+      <c r="AJ86" s="33"/>
+      <c r="AK86" s="33"/>
+      <c r="AL86" s="33"/>
+      <c r="AM86" s="33"/>
+      <c r="AN86" s="33"/>
+      <c r="AO86" s="33"/>
+      <c r="AP86" s="33"/>
+      <c r="AQ86" s="33"/>
+      <c r="AR86" s="33"/>
+      <c r="AS86" s="33"/>
+      <c r="AT86" s="33"/>
+      <c r="AU86" s="33"/>
+      <c r="AV86" s="33"/>
+      <c r="AW86" s="33"/>
+      <c r="AX86" s="33"/>
+      <c r="AY86" s="33"/>
     </row>
     <row r="87" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="13"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
-      <c r="AJ87" s="35"/>
-      <c r="AK87" s="35"/>
-      <c r="AL87" s="35"/>
-      <c r="AM87" s="35"/>
-      <c r="AN87" s="35"/>
-      <c r="AO87" s="35"/>
-      <c r="AP87" s="35"/>
-      <c r="AQ87" s="35"/>
-      <c r="AR87" s="35"/>
-      <c r="AS87" s="35"/>
-      <c r="AT87" s="35"/>
-      <c r="AU87" s="35"/>
-      <c r="AV87" s="35"/>
-      <c r="AW87" s="35"/>
-      <c r="AX87" s="35"/>
-      <c r="AY87" s="35"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="33"/>
+      <c r="X87" s="33"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
+      <c r="AB87" s="33"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="33"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="33"/>
+      <c r="AG87" s="33"/>
+      <c r="AH87" s="33"/>
+      <c r="AI87" s="33"/>
+      <c r="AJ87" s="33"/>
+      <c r="AK87" s="33"/>
+      <c r="AL87" s="33"/>
+      <c r="AM87" s="33"/>
+      <c r="AN87" s="33"/>
+      <c r="AO87" s="33"/>
+      <c r="AP87" s="33"/>
+      <c r="AQ87" s="33"/>
+      <c r="AR87" s="33"/>
+      <c r="AS87" s="33"/>
+      <c r="AT87" s="33"/>
+      <c r="AU87" s="33"/>
+      <c r="AV87" s="33"/>
+      <c r="AW87" s="33"/>
+      <c r="AX87" s="33"/>
+      <c r="AY87" s="33"/>
     </row>
     <row r="88" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="13"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="35"/>
-      <c r="AD88" s="35"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-      <c r="AG88" s="35"/>
-      <c r="AH88" s="35"/>
-      <c r="AI88" s="35"/>
-      <c r="AJ88" s="35"/>
-      <c r="AK88" s="35"/>
-      <c r="AL88" s="35"/>
-      <c r="AM88" s="35"/>
-      <c r="AN88" s="35"/>
-      <c r="AO88" s="35"/>
-      <c r="AP88" s="35"/>
-      <c r="AQ88" s="35"/>
-      <c r="AR88" s="35"/>
-      <c r="AS88" s="35"/>
-      <c r="AT88" s="35"/>
-      <c r="AU88" s="35"/>
-      <c r="AV88" s="35"/>
-      <c r="AW88" s="35"/>
-      <c r="AX88" s="35"/>
-      <c r="AY88" s="35"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="33"/>
+      <c r="U88" s="33"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="33"/>
+      <c r="AH88" s="33"/>
+      <c r="AI88" s="33"/>
+      <c r="AJ88" s="33"/>
+      <c r="AK88" s="33"/>
+      <c r="AL88" s="33"/>
+      <c r="AM88" s="33"/>
+      <c r="AN88" s="33"/>
+      <c r="AO88" s="33"/>
+      <c r="AP88" s="33"/>
+      <c r="AQ88" s="33"/>
+      <c r="AR88" s="33"/>
+      <c r="AS88" s="33"/>
+      <c r="AT88" s="33"/>
+      <c r="AU88" s="33"/>
+      <c r="AV88" s="33"/>
+      <c r="AW88" s="33"/>
+      <c r="AX88" s="33"/>
+      <c r="AY88" s="33"/>
     </row>
     <row r="89" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="13"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35"/>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
-      <c r="AI89" s="35"/>
-      <c r="AJ89" s="35"/>
-      <c r="AK89" s="35"/>
-      <c r="AL89" s="35"/>
-      <c r="AM89" s="35"/>
-      <c r="AN89" s="35"/>
-      <c r="AO89" s="35"/>
-      <c r="AP89" s="35"/>
-      <c r="AQ89" s="35"/>
-      <c r="AR89" s="35"/>
-      <c r="AS89" s="35"/>
-      <c r="AT89" s="35"/>
-      <c r="AU89" s="35"/>
-      <c r="AV89" s="35"/>
-      <c r="AW89" s="35"/>
-      <c r="AX89" s="35"/>
-      <c r="AY89" s="35"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="33"/>
+      <c r="AH89" s="33"/>
+      <c r="AI89" s="33"/>
+      <c r="AJ89" s="33"/>
+      <c r="AK89" s="33"/>
+      <c r="AL89" s="33"/>
+      <c r="AM89" s="33"/>
+      <c r="AN89" s="33"/>
+      <c r="AO89" s="33"/>
+      <c r="AP89" s="33"/>
+      <c r="AQ89" s="33"/>
+      <c r="AR89" s="33"/>
+      <c r="AS89" s="33"/>
+      <c r="AT89" s="33"/>
+      <c r="AU89" s="33"/>
+      <c r="AV89" s="33"/>
+      <c r="AW89" s="33"/>
+      <c r="AX89" s="33"/>
+      <c r="AY89" s="33"/>
     </row>
     <row r="90" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="13"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="35"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="35"/>
-      <c r="Y90" s="35"/>
-      <c r="Z90" s="35"/>
-      <c r="AA90" s="35"/>
-      <c r="AB90" s="35"/>
-      <c r="AC90" s="35"/>
-      <c r="AD90" s="35"/>
-      <c r="AE90" s="35"/>
-      <c r="AF90" s="35"/>
-      <c r="AG90" s="35"/>
-      <c r="AH90" s="35"/>
-      <c r="AI90" s="35"/>
-      <c r="AJ90" s="35"/>
-      <c r="AK90" s="35"/>
-      <c r="AL90" s="35"/>
-      <c r="AM90" s="35"/>
-      <c r="AN90" s="35"/>
-      <c r="AO90" s="35"/>
-      <c r="AP90" s="35"/>
-      <c r="AQ90" s="35"/>
-      <c r="AR90" s="35"/>
-      <c r="AS90" s="35"/>
-      <c r="AT90" s="35"/>
-      <c r="AU90" s="35"/>
-      <c r="AV90" s="35"/>
-      <c r="AW90" s="35"/>
-      <c r="AX90" s="35"/>
-      <c r="AY90" s="35"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="33"/>
+      <c r="X90" s="33"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="33"/>
+      <c r="AG90" s="33"/>
+      <c r="AH90" s="33"/>
+      <c r="AI90" s="33"/>
+      <c r="AJ90" s="33"/>
+      <c r="AK90" s="33"/>
+      <c r="AL90" s="33"/>
+      <c r="AM90" s="33"/>
+      <c r="AN90" s="33"/>
+      <c r="AO90" s="33"/>
+      <c r="AP90" s="33"/>
+      <c r="AQ90" s="33"/>
+      <c r="AR90" s="33"/>
+      <c r="AS90" s="33"/>
+      <c r="AT90" s="33"/>
+      <c r="AU90" s="33"/>
+      <c r="AV90" s="33"/>
+      <c r="AW90" s="33"/>
+      <c r="AX90" s="33"/>
+      <c r="AY90" s="33"/>
     </row>
     <row r="91" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="13"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
-      <c r="AG91" s="35"/>
-      <c r="AH91" s="35"/>
-      <c r="AI91" s="35"/>
-      <c r="AJ91" s="35"/>
-      <c r="AK91" s="35"/>
-      <c r="AL91" s="35"/>
-      <c r="AM91" s="35"/>
-      <c r="AN91" s="35"/>
-      <c r="AO91" s="35"/>
-      <c r="AP91" s="35"/>
-      <c r="AQ91" s="35"/>
-      <c r="AR91" s="35"/>
-      <c r="AS91" s="35"/>
-      <c r="AT91" s="35"/>
-      <c r="AU91" s="35"/>
-      <c r="AV91" s="35"/>
-      <c r="AW91" s="35"/>
-      <c r="AX91" s="35"/>
-      <c r="AY91" s="35"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="33"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="33"/>
+      <c r="AI91" s="33"/>
+      <c r="AJ91" s="33"/>
+      <c r="AK91" s="33"/>
+      <c r="AL91" s="33"/>
+      <c r="AM91" s="33"/>
+      <c r="AN91" s="33"/>
+      <c r="AO91" s="33"/>
+      <c r="AP91" s="33"/>
+      <c r="AQ91" s="33"/>
+      <c r="AR91" s="33"/>
+      <c r="AS91" s="33"/>
+      <c r="AT91" s="33"/>
+      <c r="AU91" s="33"/>
+      <c r="AV91" s="33"/>
+      <c r="AW91" s="33"/>
+      <c r="AX91" s="33"/>
+      <c r="AY91" s="33"/>
     </row>
     <row r="92" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="13"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="35"/>
-      <c r="AI92" s="35"/>
-      <c r="AJ92" s="35"/>
-      <c r="AK92" s="35"/>
-      <c r="AL92" s="35"/>
-      <c r="AM92" s="35"/>
-      <c r="AN92" s="35"/>
-      <c r="AO92" s="35"/>
-      <c r="AP92" s="35"/>
-      <c r="AQ92" s="35"/>
-      <c r="AR92" s="35"/>
-      <c r="AS92" s="35"/>
-      <c r="AT92" s="35"/>
-      <c r="AU92" s="35"/>
-      <c r="AV92" s="35"/>
-      <c r="AW92" s="35"/>
-      <c r="AX92" s="35"/>
-      <c r="AY92" s="35"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+      <c r="Z92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="33"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="33"/>
+      <c r="AI92" s="33"/>
+      <c r="AJ92" s="33"/>
+      <c r="AK92" s="33"/>
+      <c r="AL92" s="33"/>
+      <c r="AM92" s="33"/>
+      <c r="AN92" s="33"/>
+      <c r="AO92" s="33"/>
+      <c r="AP92" s="33"/>
+      <c r="AQ92" s="33"/>
+      <c r="AR92" s="33"/>
+      <c r="AS92" s="33"/>
+      <c r="AT92" s="33"/>
+      <c r="AU92" s="33"/>
+      <c r="AV92" s="33"/>
+      <c r="AW92" s="33"/>
+      <c r="AX92" s="33"/>
+      <c r="AY92" s="33"/>
     </row>
     <row r="93" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="13"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-      <c r="AG93" s="35"/>
-      <c r="AH93" s="35"/>
-      <c r="AI93" s="35"/>
-      <c r="AJ93" s="35"/>
-      <c r="AK93" s="35"/>
-      <c r="AL93" s="35"/>
-      <c r="AM93" s="35"/>
-      <c r="AN93" s="35"/>
-      <c r="AO93" s="35"/>
-      <c r="AP93" s="35"/>
-      <c r="AQ93" s="35"/>
-      <c r="AR93" s="35"/>
-      <c r="AS93" s="35"/>
-      <c r="AT93" s="35"/>
-      <c r="AU93" s="35"/>
-      <c r="AV93" s="35"/>
-      <c r="AW93" s="35"/>
-      <c r="AX93" s="35"/>
-      <c r="AY93" s="35"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="33"/>
+      <c r="AH93" s="33"/>
+      <c r="AI93" s="33"/>
+      <c r="AJ93" s="33"/>
+      <c r="AK93" s="33"/>
+      <c r="AL93" s="33"/>
+      <c r="AM93" s="33"/>
+      <c r="AN93" s="33"/>
+      <c r="AO93" s="33"/>
+      <c r="AP93" s="33"/>
+      <c r="AQ93" s="33"/>
+      <c r="AR93" s="33"/>
+      <c r="AS93" s="33"/>
+      <c r="AT93" s="33"/>
+      <c r="AU93" s="33"/>
+      <c r="AV93" s="33"/>
+      <c r="AW93" s="33"/>
+      <c r="AX93" s="33"/>
+      <c r="AY93" s="33"/>
     </row>
     <row r="94" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="13"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35"/>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
-      <c r="AC94" s="35"/>
-      <c r="AD94" s="35"/>
-      <c r="AE94" s="35"/>
-      <c r="AF94" s="35"/>
-      <c r="AG94" s="35"/>
-      <c r="AH94" s="35"/>
-      <c r="AI94" s="35"/>
-      <c r="AJ94" s="35"/>
-      <c r="AK94" s="35"/>
-      <c r="AL94" s="35"/>
-      <c r="AM94" s="35"/>
-      <c r="AN94" s="35"/>
-      <c r="AO94" s="35"/>
-      <c r="AP94" s="35"/>
-      <c r="AQ94" s="35"/>
-      <c r="AR94" s="35"/>
-      <c r="AS94" s="35"/>
-      <c r="AT94" s="35"/>
-      <c r="AU94" s="35"/>
-      <c r="AV94" s="35"/>
-      <c r="AW94" s="35"/>
-      <c r="AX94" s="35"/>
-      <c r="AY94" s="35"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="33"/>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="33"/>
+      <c r="AI94" s="33"/>
+      <c r="AJ94" s="33"/>
+      <c r="AK94" s="33"/>
+      <c r="AL94" s="33"/>
+      <c r="AM94" s="33"/>
+      <c r="AN94" s="33"/>
+      <c r="AO94" s="33"/>
+      <c r="AP94" s="33"/>
+      <c r="AQ94" s="33"/>
+      <c r="AR94" s="33"/>
+      <c r="AS94" s="33"/>
+      <c r="AT94" s="33"/>
+      <c r="AU94" s="33"/>
+      <c r="AV94" s="33"/>
+      <c r="AW94" s="33"/>
+      <c r="AX94" s="33"/>
+      <c r="AY94" s="33"/>
     </row>
     <row r="95" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="35"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="13"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
-      <c r="Z95" s="35"/>
-      <c r="AA95" s="35"/>
-      <c r="AB95" s="35"/>
-      <c r="AC95" s="35"/>
-      <c r="AD95" s="35"/>
-      <c r="AE95" s="35"/>
-      <c r="AF95" s="35"/>
-      <c r="AG95" s="35"/>
-      <c r="AH95" s="35"/>
-      <c r="AI95" s="35"/>
-      <c r="AJ95" s="35"/>
-      <c r="AK95" s="35"/>
-      <c r="AL95" s="35"/>
-      <c r="AM95" s="35"/>
-      <c r="AN95" s="35"/>
-      <c r="AO95" s="35"/>
-      <c r="AP95" s="35"/>
-      <c r="AQ95" s="35"/>
-      <c r="AR95" s="35"/>
-      <c r="AS95" s="35"/>
-      <c r="AT95" s="35"/>
-      <c r="AU95" s="35"/>
-      <c r="AV95" s="35"/>
-      <c r="AW95" s="35"/>
-      <c r="AX95" s="35"/>
-      <c r="AY95" s="35"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="33"/>
+      <c r="X95" s="33"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="33"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="33"/>
+      <c r="AC95" s="33"/>
+      <c r="AD95" s="33"/>
+      <c r="AE95" s="33"/>
+      <c r="AF95" s="33"/>
+      <c r="AG95" s="33"/>
+      <c r="AH95" s="33"/>
+      <c r="AI95" s="33"/>
+      <c r="AJ95" s="33"/>
+      <c r="AK95" s="33"/>
+      <c r="AL95" s="33"/>
+      <c r="AM95" s="33"/>
+      <c r="AN95" s="33"/>
+      <c r="AO95" s="33"/>
+      <c r="AP95" s="33"/>
+      <c r="AQ95" s="33"/>
+      <c r="AR95" s="33"/>
+      <c r="AS95" s="33"/>
+      <c r="AT95" s="33"/>
+      <c r="AU95" s="33"/>
+      <c r="AV95" s="33"/>
+      <c r="AW95" s="33"/>
+      <c r="AX95" s="33"/>
+      <c r="AY95" s="33"/>
     </row>
     <row r="96" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="13"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35"/>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
-      <c r="AC96" s="35"/>
-      <c r="AD96" s="35"/>
-      <c r="AE96" s="35"/>
-      <c r="AF96" s="35"/>
-      <c r="AG96" s="35"/>
-      <c r="AH96" s="35"/>
-      <c r="AI96" s="35"/>
-      <c r="AJ96" s="35"/>
-      <c r="AK96" s="35"/>
-      <c r="AL96" s="35"/>
-      <c r="AM96" s="35"/>
-      <c r="AN96" s="35"/>
-      <c r="AO96" s="35"/>
-      <c r="AP96" s="35"/>
-      <c r="AQ96" s="35"/>
-      <c r="AR96" s="35"/>
-      <c r="AS96" s="35"/>
-      <c r="AT96" s="35"/>
-      <c r="AU96" s="35"/>
-      <c r="AV96" s="35"/>
-      <c r="AW96" s="35"/>
-      <c r="AX96" s="35"/>
-      <c r="AY96" s="35"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33"/>
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33"/>
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="33"/>
+      <c r="AG96" s="33"/>
+      <c r="AH96" s="33"/>
+      <c r="AI96" s="33"/>
+      <c r="AJ96" s="33"/>
+      <c r="AK96" s="33"/>
+      <c r="AL96" s="33"/>
+      <c r="AM96" s="33"/>
+      <c r="AN96" s="33"/>
+      <c r="AO96" s="33"/>
+      <c r="AP96" s="33"/>
+      <c r="AQ96" s="33"/>
+      <c r="AR96" s="33"/>
+      <c r="AS96" s="33"/>
+      <c r="AT96" s="33"/>
+      <c r="AU96" s="33"/>
+      <c r="AV96" s="33"/>
+      <c r="AW96" s="33"/>
+      <c r="AX96" s="33"/>
+      <c r="AY96" s="33"/>
     </row>
     <row r="97" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="13"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
-      <c r="AC97" s="35"/>
-      <c r="AD97" s="35"/>
-      <c r="AE97" s="35"/>
-      <c r="AF97" s="35"/>
-      <c r="AG97" s="35"/>
-      <c r="AH97" s="35"/>
-      <c r="AI97" s="35"/>
-      <c r="AJ97" s="35"/>
-      <c r="AK97" s="35"/>
-      <c r="AL97" s="35"/>
-      <c r="AM97" s="35"/>
-      <c r="AN97" s="35"/>
-      <c r="AO97" s="35"/>
-      <c r="AP97" s="35"/>
-      <c r="AQ97" s="35"/>
-      <c r="AR97" s="35"/>
-      <c r="AS97" s="35"/>
-      <c r="AT97" s="35"/>
-      <c r="AU97" s="35"/>
-      <c r="AV97" s="35"/>
-      <c r="AW97" s="35"/>
-      <c r="AX97" s="35"/>
-      <c r="AY97" s="35"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
+      <c r="V97" s="33"/>
+      <c r="W97" s="33"/>
+      <c r="X97" s="33"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="33"/>
+      <c r="AA97" s="33"/>
+      <c r="AB97" s="33"/>
+      <c r="AC97" s="33"/>
+      <c r="AD97" s="33"/>
+      <c r="AE97" s="33"/>
+      <c r="AF97" s="33"/>
+      <c r="AG97" s="33"/>
+      <c r="AH97" s="33"/>
+      <c r="AI97" s="33"/>
+      <c r="AJ97" s="33"/>
+      <c r="AK97" s="33"/>
+      <c r="AL97" s="33"/>
+      <c r="AM97" s="33"/>
+      <c r="AN97" s="33"/>
+      <c r="AO97" s="33"/>
+      <c r="AP97" s="33"/>
+      <c r="AQ97" s="33"/>
+      <c r="AR97" s="33"/>
+      <c r="AS97" s="33"/>
+      <c r="AT97" s="33"/>
+      <c r="AU97" s="33"/>
+      <c r="AV97" s="33"/>
+      <c r="AW97" s="33"/>
+      <c r="AX97" s="33"/>
+      <c r="AY97" s="33"/>
     </row>
     <row r="98" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="13"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="35"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="35"/>
-      <c r="Y98" s="35"/>
-      <c r="Z98" s="35"/>
-      <c r="AA98" s="35"/>
-      <c r="AB98" s="35"/>
-      <c r="AC98" s="35"/>
-      <c r="AD98" s="35"/>
-      <c r="AE98" s="35"/>
-      <c r="AF98" s="35"/>
-      <c r="AG98" s="35"/>
-      <c r="AH98" s="35"/>
-      <c r="AI98" s="35"/>
-      <c r="AJ98" s="35"/>
-      <c r="AK98" s="35"/>
-      <c r="AL98" s="35"/>
-      <c r="AM98" s="35"/>
-      <c r="AN98" s="35"/>
-      <c r="AO98" s="35"/>
-      <c r="AP98" s="35"/>
-      <c r="AQ98" s="35"/>
-      <c r="AR98" s="35"/>
-      <c r="AS98" s="35"/>
-      <c r="AT98" s="35"/>
-      <c r="AU98" s="35"/>
-      <c r="AV98" s="35"/>
-      <c r="AW98" s="35"/>
-      <c r="AX98" s="35"/>
-      <c r="AY98" s="35"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
+      <c r="AD98" s="33"/>
+      <c r="AE98" s="33"/>
+      <c r="AF98" s="33"/>
+      <c r="AG98" s="33"/>
+      <c r="AH98" s="33"/>
+      <c r="AI98" s="33"/>
+      <c r="AJ98" s="33"/>
+      <c r="AK98" s="33"/>
+      <c r="AL98" s="33"/>
+      <c r="AM98" s="33"/>
+      <c r="AN98" s="33"/>
+      <c r="AO98" s="33"/>
+      <c r="AP98" s="33"/>
+      <c r="AQ98" s="33"/>
+      <c r="AR98" s="33"/>
+      <c r="AS98" s="33"/>
+      <c r="AT98" s="33"/>
+      <c r="AU98" s="33"/>
+      <c r="AV98" s="33"/>
+      <c r="AW98" s="33"/>
+      <c r="AX98" s="33"/>
+      <c r="AY98" s="33"/>
     </row>
     <row r="99" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="13"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="35"/>
-      <c r="X99" s="35"/>
-      <c r="Y99" s="35"/>
-      <c r="Z99" s="35"/>
-      <c r="AA99" s="35"/>
-      <c r="AB99" s="35"/>
-      <c r="AC99" s="35"/>
-      <c r="AD99" s="35"/>
-      <c r="AE99" s="35"/>
-      <c r="AF99" s="35"/>
-      <c r="AG99" s="35"/>
-      <c r="AH99" s="35"/>
-      <c r="AI99" s="35"/>
-      <c r="AJ99" s="35"/>
-      <c r="AK99" s="35"/>
-      <c r="AL99" s="35"/>
-      <c r="AM99" s="35"/>
-      <c r="AN99" s="35"/>
-      <c r="AO99" s="35"/>
-      <c r="AP99" s="35"/>
-      <c r="AQ99" s="35"/>
-      <c r="AR99" s="35"/>
-      <c r="AS99" s="35"/>
-      <c r="AT99" s="35"/>
-      <c r="AU99" s="35"/>
-      <c r="AV99" s="35"/>
-      <c r="AW99" s="35"/>
-      <c r="AX99" s="35"/>
-      <c r="AY99" s="35"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
+      <c r="AG99" s="33"/>
+      <c r="AH99" s="33"/>
+      <c r="AI99" s="33"/>
+      <c r="AJ99" s="33"/>
+      <c r="AK99" s="33"/>
+      <c r="AL99" s="33"/>
+      <c r="AM99" s="33"/>
+      <c r="AN99" s="33"/>
+      <c r="AO99" s="33"/>
+      <c r="AP99" s="33"/>
+      <c r="AQ99" s="33"/>
+      <c r="AR99" s="33"/>
+      <c r="AS99" s="33"/>
+      <c r="AT99" s="33"/>
+      <c r="AU99" s="33"/>
+      <c r="AV99" s="33"/>
+      <c r="AW99" s="33"/>
+      <c r="AX99" s="33"/>
+      <c r="AY99" s="33"/>
     </row>
     <row r="100" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>

--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GCM\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779027F-EB72-435A-AFD6-872291EE8BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -233,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
@@ -308,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -573,11 +566,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -725,25 +744,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +791,12 @@
     </xf>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1330,7 @@
       </c>
       <c r="C6" s="21">
         <f>(SUM(G10:G54)/38)</f>
-        <v>0.43684210526315792</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2654,7 +2676,7 @@
     </row>
     <row r="26" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -2802,8 +2824,8 @@
         <f t="shared" ref="F28:F46" si="2">E28-D28</f>
         <v>2</v>
       </c>
-      <c r="G28" s="56">
-        <v>0.4</v>
+      <c r="G28" s="46">
+        <v>1</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2867,8 +2889,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G29" s="57">
-        <v>0.1</v>
+      <c r="G29" s="46">
+        <v>1</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2933,8 +2955,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G30" s="57">
-        <v>0.1</v>
+      <c r="G30" s="46">
+        <v>1</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2999,8 +3021,8 @@
         <f>E31-D31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="57">
-        <v>0</v>
+      <c r="G31" s="46">
+        <v>1</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -3047,13 +3069,13 @@
       <c r="AX31" s="6"/>
       <c r="AY31" s="48"/>
     </row>
-    <row r="32" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="44">
         <v>44028</v>
@@ -3065,8 +3087,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G32" s="57">
-        <v>0</v>
+      <c r="G32" s="46">
+        <v>1</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3113,12 +3135,12 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="48"/>
     </row>
-    <row r="33" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D33" s="44">
         <v>44031</v>
@@ -3130,7 +3152,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="56">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
@@ -3196,7 +3218,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="56">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
@@ -3262,7 +3284,7 @@
         <f>E35-D35</f>
         <v>1</v>
       </c>
-      <c r="G35" s="57">
+      <c r="G35" s="56">
         <v>0</v>
       </c>
       <c r="H35" s="6"/>
@@ -3327,7 +3349,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="56">
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
@@ -3393,7 +3415,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="56">
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
@@ -3459,7 +3481,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="56">
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
@@ -3525,7 +3547,7 @@
         <f>E39-D39</f>
         <v>1</v>
       </c>
-      <c r="G39" s="57">
+      <c r="G39" s="56">
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
@@ -3591,7 +3613,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G40" s="57">
+      <c r="G40" s="56">
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
@@ -3640,7 +3662,7 @@
       <c r="AY40" s="48"/>
     </row>
     <row r="41" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="68" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="43" t="s">
@@ -3656,7 +3678,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="56">
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
@@ -3722,7 +3744,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G42" s="57">
+      <c r="G42" s="56">
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
@@ -3788,7 +3810,7 @@
         <f>E43-D43</f>
         <v>1</v>
       </c>
-      <c r="G43" s="57">
+      <c r="G43" s="56">
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
@@ -3854,7 +3876,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G44" s="57">
+      <c r="G44" s="56">
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
@@ -3919,7 +3941,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="56">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
@@ -3985,7 +4007,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G46" s="57">
+      <c r="G46" s="56">
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
@@ -4090,10 +4112,10 @@
     </row>
     <row r="48" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="44">
@@ -4106,7 +4128,7 @@
         <f>E48-D48</f>
         <v>3</v>
       </c>
-      <c r="G48" s="57">
+      <c r="G48" s="56">
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
@@ -4172,7 +4194,7 @@
         <f t="shared" ref="F49:F54" si="3">E49-D49</f>
         <v>3</v>
       </c>
-      <c r="G49" s="57">
+      <c r="G49" s="56">
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
@@ -4238,7 +4260,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="56">
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
@@ -4304,7 +4326,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G51" s="57">
+      <c r="G51" s="56">
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
@@ -4370,7 +4392,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G52" s="57">
+      <c r="G52" s="56">
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
@@ -4436,7 +4458,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G53" s="57">
+      <c r="G53" s="56">
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
@@ -4502,7 +4524,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G54" s="57">
+      <c r="G54" s="56">
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
@@ -4548,62 +4570,62 @@
       <c r="AV54" s="6"/>
       <c r="AW54" s="49"/>
       <c r="AX54" s="49"/>
-      <c r="AY54" s="60"/>
+      <c r="AY54" s="59"/>
     </row>
     <row r="55" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="32"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="64"/>
-      <c r="V55" s="64"/>
-      <c r="W55" s="64"/>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="64"/>
-      <c r="Z55" s="64"/>
-      <c r="AA55" s="64"/>
-      <c r="AB55" s="64"/>
-      <c r="AC55" s="64"/>
-      <c r="AD55" s="64"/>
-      <c r="AE55" s="64"/>
-      <c r="AF55" s="64"/>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="64"/>
-      <c r="AI55" s="64"/>
-      <c r="AJ55" s="64"/>
-      <c r="AK55" s="64"/>
-      <c r="AL55" s="64"/>
-      <c r="AM55" s="64"/>
-      <c r="AN55" s="64"/>
-      <c r="AO55" s="64"/>
-      <c r="AP55" s="64"/>
-      <c r="AQ55" s="64"/>
-      <c r="AR55" s="64"/>
-      <c r="AS55" s="64"/>
-      <c r="AT55" s="64"/>
-      <c r="AU55" s="64"/>
-      <c r="AV55" s="64"/>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="64"/>
-      <c r="AY55" s="65"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="63"/>
+      <c r="AM55" s="63"/>
+      <c r="AN55" s="63"/>
+      <c r="AO55" s="63"/>
+      <c r="AP55" s="63"/>
+      <c r="AQ55" s="63"/>
+      <c r="AR55" s="63"/>
+      <c r="AS55" s="63"/>
+      <c r="AT55" s="63"/>
+      <c r="AU55" s="63"/>
+      <c r="AV55" s="63"/>
+      <c r="AW55" s="63"/>
+      <c r="AX55" s="63"/>
+      <c r="AY55" s="64"/>
     </row>
     <row r="56" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
@@ -5026,11 +5048,11 @@
       <c r="C63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="66">
+      <c r="D63" s="65">
         <f>E54</f>
         <v>44087</v>
       </c>
-      <c r="E63" s="67"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="10"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
@@ -9730,6 +9752,6 @@
     <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GCM\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 - 1\Metodología de la Investigación\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9322A-5123-4911-803C-9640FDDBF0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
@@ -307,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,17 +793,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1340,7 @@
       </c>
       <c r="C6" s="21">
         <f>(SUM(G10:G54)/38)</f>
-        <v>0.55263157894736847</v>
+        <v>0.64473684210526305</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2676,7 +2686,7 @@
     </row>
     <row r="26" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -3087,8 +3097,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G32" s="46">
-        <v>1</v>
+      <c r="G32" s="69">
+        <v>0.9</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3135,7 +3145,7 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="48"/>
     </row>
-    <row r="33" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
@@ -3152,8 +3162,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G33" s="56">
-        <v>0</v>
+      <c r="G33" s="69">
+        <v>0.7</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3218,8 +3228,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G34" s="56">
-        <v>0</v>
+      <c r="G34" s="46">
+        <v>1</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3284,8 +3294,8 @@
         <f>E35-D35</f>
         <v>1</v>
       </c>
-      <c r="G35" s="56">
-        <v>0</v>
+      <c r="G35" s="46">
+        <v>1</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3349,8 +3359,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G36" s="56">
-        <v>0</v>
+      <c r="G36" s="69">
+        <v>0.9</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3662,7 +3672,7 @@
       <c r="AY40" s="48"/>
     </row>
     <row r="41" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="43" t="s">
@@ -5048,11 +5058,11 @@
       <c r="C63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="67">
         <f>E54</f>
         <v>44087</v>
       </c>
-      <c r="E63" s="66"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="10"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>

--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 - 1\Metodología de la Investigación\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Proyecto GCM\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9322A-5123-4911-803C-9640FDDBF0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -229,11 +228,29 @@
   <si>
     <t>Modulo de Validacion: Desarrollo de la base de datos</t>
   </si>
+  <si>
+    <t>Diccionario de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Autenticacion: Integración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Proyectos: Integración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Requisitos: Integración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Prototipado: Integración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Validacion: Integración </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
@@ -308,7 +325,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,14 +392,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -599,6 +610,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -805,8 +825,8 @@
     <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,14 +1042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AY1024"/>
+  <dimension ref="A1:AY1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="20">
-        <f>E54</f>
+        <f>E60</f>
         <v>44087</v>
       </c>
       <c r="D5" s="1"/>
@@ -1339,8 +1359,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="21">
-        <f>(SUM(G10:G54)/38)</f>
-        <v>0.64473684210526305</v>
+        <f>(SUM(G10:G60)/38)</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1716,7 +1736,7 @@
       <c r="AX10" s="6"/>
       <c r="AY10" s="48"/>
     </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
         <v>15</v>
@@ -2041,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D16" s="44">
         <v>44002</v>
@@ -2050,7 +2070,7 @@
         <v>44004</v>
       </c>
       <c r="F16" s="45">
-        <f t="shared" ref="F16:F24" si="1">E16-D16</f>
+        <f t="shared" ref="F16:F25" si="1">E16-D16</f>
         <v>2</v>
       </c>
       <c r="G16" s="46">
@@ -2107,7 +2127,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D17" s="44">
         <v>44004</v>
@@ -2233,13 +2253,13 @@
       <c r="AX18" s="6"/>
       <c r="AY18" s="48"/>
     </row>
-    <row r="19" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="44">
         <v>44008</v>
@@ -2299,7 +2319,7 @@
       <c r="AX19" s="6"/>
       <c r="AY19" s="48"/>
     </row>
-    <row r="20" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="52" t="s">
         <v>32</v>
@@ -2564,21 +2584,21 @@
       <c r="AY23" s="48"/>
     </row>
     <row r="24" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="53" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="44">
+        <v>44016</v>
+      </c>
+      <c r="E24" s="44">
         <v>44018</v>
       </c>
-      <c r="E24" s="44">
-        <v>44020</v>
-      </c>
       <c r="F24" s="45">
-        <f t="shared" si="1"/>
+        <f>E24-D24</f>
         <v>2</v>
       </c>
       <c r="G24" s="46">
@@ -2593,8 +2613,8 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
@@ -2630,139 +2650,139 @@
       <c r="AY24" s="48"/>
     </row>
     <row r="25" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="44">
+        <v>44018</v>
+      </c>
+      <c r="E25" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F25" s="45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="48"/>
+    </row>
+    <row r="26" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="42"/>
-    </row>
-    <row r="26" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="65" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="42"/>
+    </row>
+    <row r="27" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C27" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D27" s="44">
         <v>44020</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E27" s="44">
         <v>44021</v>
-      </c>
-      <c r="F26" s="45">
-        <f>E26-D26</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="46">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="48"/>
-    </row>
-    <row r="27" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="44">
-        <v>44021</v>
-      </c>
-      <c r="E27" s="44">
-        <v>44022</v>
       </c>
       <c r="F27" s="45">
         <f>E27-D27</f>
@@ -2782,11 +2802,11 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -2818,21 +2838,21 @@
     </row>
     <row r="28" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="17" t="s">
-        <v>35</v>
+      <c r="B28" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="44">
+        <v>44021</v>
+      </c>
+      <c r="E28" s="44">
         <v>44022</v>
       </c>
-      <c r="E28" s="44">
-        <v>44024</v>
-      </c>
       <c r="F28" s="45">
-        <f t="shared" ref="F28:F46" si="2">E28-D28</f>
-        <v>2</v>
+        <f>E28-D28</f>
+        <v>1</v>
       </c>
       <c r="G28" s="46">
         <v>1</v>
@@ -2852,8 +2872,8 @@
       <c r="T28" s="47"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -2883,20 +2903,21 @@
       <c r="AY28" s="48"/>
     </row>
     <row r="29" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>34</v>
+      <c r="A29" s="6"/>
+      <c r="B29" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="44">
+        <v>44022</v>
+      </c>
+      <c r="E29" s="44">
         <v>44024</v>
       </c>
-      <c r="E29" s="44">
-        <v>44026</v>
-      </c>
       <c r="F29" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F29:F52" si="2">E29-D29</f>
         <v>2</v>
       </c>
       <c r="G29" s="46">
@@ -2914,12 +2935,12 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -2948,22 +2969,21 @@
       <c r="AY29" s="48"/>
     </row>
     <row r="30" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D30" s="44">
+        <v>44024</v>
+      </c>
+      <c r="E30" s="44">
         <v>44026</v>
-      </c>
-      <c r="E30" s="44">
-        <v>44027</v>
       </c>
       <c r="F30" s="45">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="46">
         <v>1</v>
@@ -2981,12 +3001,12 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
+      <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -3016,19 +3036,19 @@
     <row r="31" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31" s="44">
+        <v>44026</v>
+      </c>
+      <c r="E31" s="44">
         <v>44027</v>
       </c>
-      <c r="E31" s="44">
-        <v>44028</v>
-      </c>
       <c r="F31" s="45">
-        <f>E31-D31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G31" s="46">
@@ -3048,12 +3068,12 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
@@ -3081,24 +3101,24 @@
     </row>
     <row r="32" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="17" t="s">
-        <v>38</v>
+      <c r="B32" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="44">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="E32" s="44">
-        <v>44031</v>
+        <v>44027</v>
       </c>
       <c r="F32" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G32" s="69">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="46">
+        <v>1</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3114,13 +3134,13 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="49"/>
+      <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -3146,24 +3166,25 @@
       <c r="AY32" s="48"/>
     </row>
     <row r="33" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D33" s="44">
-        <v>44031</v>
+        <v>44027</v>
       </c>
       <c r="E33" s="44">
-        <v>44034</v>
+        <v>44028</v>
       </c>
       <c r="F33" s="45">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G33" s="69">
-        <v>0.7</v>
+        <f>E33-D33</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="46">
+        <v>1</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3180,13 +3201,13 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="W33" s="47"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="49"/>
+      <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
@@ -3212,21 +3233,21 @@
     </row>
     <row r="34" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="15" t="s">
-        <v>39</v>
+      <c r="B34" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" s="44">
-        <v>44034</v>
+        <v>44028</v>
       </c>
       <c r="E34" s="44">
-        <v>44036</v>
+        <v>44031</v>
       </c>
       <c r="F34" s="45">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="46">
         <v>1</v>
@@ -3246,14 +3267,14 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="47"/>
+      <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="AB34" s="49"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="49"/>
+      <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
@@ -3277,22 +3298,21 @@
       <c r="AY34" s="48"/>
     </row>
     <row r="35" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
       <c r="B35" s="15" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="44">
-        <v>44036</v>
+        <v>44031</v>
       </c>
       <c r="E35" s="44">
-        <v>44037</v>
+        <v>44034</v>
       </c>
       <c r="F35" s="45">
-        <f>E35-D35</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="G35" s="46">
         <v>1</v>
@@ -3314,13 +3334,13 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
+      <c r="AC35" s="49"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="49"/>
+      <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -3343,24 +3363,25 @@
       <c r="AY35" s="48"/>
     </row>
     <row r="36" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>41</v>
+      <c r="A36" s="6"/>
+      <c r="B36" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D36" s="44">
-        <v>44037</v>
+        <v>44034</v>
       </c>
       <c r="E36" s="44">
-        <v>44040</v>
+        <v>44036</v>
       </c>
       <c r="F36" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G36" s="69">
-        <v>0.9</v>
+        <v>2</v>
+      </c>
+      <c r="G36" s="46">
+        <v>1</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3380,13 +3401,13 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="47"/>
       <c r="AA36" s="6"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="49"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="49"/>
+      <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -3410,23 +3431,23 @@
     <row r="37" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="15" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D37" s="44">
-        <v>44040</v>
+        <v>44034</v>
       </c>
       <c r="E37" s="44">
-        <v>44043</v>
+        <v>44036</v>
       </c>
       <c r="F37" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G37" s="56">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G37" s="46">
+        <v>1</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3446,14 +3467,14 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="47"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="49"/>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
-      <c r="AG37" s="49"/>
+      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
@@ -3476,23 +3497,23 @@
     <row r="38" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D38" s="44">
-        <v>44043</v>
+        <v>44036</v>
       </c>
       <c r="E38" s="44">
-        <v>44045</v>
+        <v>44037</v>
       </c>
       <c r="F38" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G38" s="56">
-        <v>0</v>
+        <f>E38-D38</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="46">
+        <v>1</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3513,14 +3534,14 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
+      <c r="AA38" s="47"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="49"/>
+      <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="47"/>
+      <c r="AE38" s="49"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="49"/>
+      <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
@@ -3540,25 +3561,24 @@
       <c r="AY38" s="48"/>
     </row>
     <row r="39" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="15" t="s">
-        <v>64</v>
+      <c r="B39" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39" s="44">
-        <v>44045</v>
+        <v>44037</v>
       </c>
       <c r="E39" s="44">
-        <v>44046</v>
+        <v>44040</v>
       </c>
       <c r="F39" s="45">
-        <f>E39-D39</f>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="46">
         <v>1</v>
-      </c>
-      <c r="G39" s="56">
-        <v>0</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -3580,14 +3600,14 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="47"/>
+      <c r="AF39" s="49"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="49"/>
+      <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
@@ -3605,23 +3625,23 @@
       <c r="AX39" s="6"/>
       <c r="AY39" s="48"/>
     </row>
-    <row r="40" spans="1:51" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="17" t="s">
-        <v>44</v>
+      <c r="B40" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D40" s="44">
-        <v>44046</v>
+        <v>44040</v>
       </c>
       <c r="E40" s="44">
-        <v>44050</v>
+        <v>44043</v>
       </c>
       <c r="F40" s="45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="56">
         <v>0</v>
@@ -3647,46 +3667,47 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
       <c r="AE40" s="6"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="49"/>
-      <c r="AJ40" s="49"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
-      <c r="AO40" s="49"/>
+      <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
-      <c r="AT40" s="49"/>
-      <c r="AU40" s="49"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
       <c r="AY40" s="48"/>
     </row>
     <row r="41" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="66" t="s">
-        <v>43</v>
+      <c r="A41" s="6"/>
+      <c r="B41" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" s="44">
-        <v>44050</v>
+        <v>44043</v>
       </c>
       <c r="E41" s="44">
-        <v>44054</v>
+        <v>44045</v>
       </c>
       <c r="F41" s="45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="56">
         <v>0</v>
@@ -3712,47 +3733,47 @@
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
+      <c r="AC41" s="49"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="47"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
-      <c r="AP41" s="49"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="49"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
-      <c r="AV41" s="49"/>
-      <c r="AW41" s="49"/>
-      <c r="AX41" s="49"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
       <c r="AY41" s="48"/>
     </row>
     <row r="42" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="44">
-        <v>44054</v>
+        <v>44043</v>
       </c>
       <c r="E42" s="44">
-        <v>44057</v>
+        <v>44045</v>
       </c>
       <c r="F42" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="56">
         <v>0</v>
@@ -3778,43 +3799,43 @@
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
+      <c r="AC42" s="49"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="47"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
+      <c r="AH42" s="49"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="47"/>
-      <c r="AL42" s="49"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
-      <c r="AU42" s="49"/>
-      <c r="AV42" s="49"/>
-      <c r="AW42" s="49"/>
-      <c r="AX42" s="49"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="6"/>
       <c r="AY42" s="48"/>
     </row>
     <row r="43" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43" s="44">
-        <v>44057</v>
+        <v>44045</v>
       </c>
       <c r="E43" s="44">
-        <v>44058</v>
+        <v>44046</v>
       </c>
       <c r="F43" s="45">
         <f>E43-D43</f>
@@ -3847,44 +3868,44 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
+      <c r="AF43" s="47"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
+      <c r="AI43" s="49"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="49"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
-      <c r="AU43" s="49"/>
-      <c r="AV43" s="49"/>
-      <c r="AW43" s="49"/>
-      <c r="AX43" s="49"/>
+      <c r="AU43" s="6"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
       <c r="AY43" s="48"/>
     </row>
     <row r="44" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D44" s="44">
-        <v>44058</v>
+        <v>44046</v>
       </c>
       <c r="E44" s="44">
-        <v>44061</v>
+        <v>44050</v>
       </c>
       <c r="F44" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="56">
         <v>0</v>
@@ -3913,43 +3934,43 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="49"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="49"/>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
-      <c r="AT44" s="6"/>
-      <c r="AU44" s="6"/>
+      <c r="AT44" s="49"/>
+      <c r="AU44" s="49"/>
       <c r="AV44" s="6"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
       <c r="AY44" s="48"/>
     </row>
     <row r="45" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>46</v>
+      <c r="B45" s="66" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D45" s="44">
-        <v>44061</v>
+        <v>44050</v>
       </c>
       <c r="E45" s="44">
-        <v>44064</v>
+        <v>44054</v>
       </c>
       <c r="F45" s="45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="56">
         <v>0</v>
@@ -3981,41 +4002,41 @@
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="6"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="6"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
       <c r="AY45" s="48"/>
     </row>
     <row r="46" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D46" s="44">
-        <v>44064</v>
+        <v>44054</v>
       </c>
       <c r="E46" s="44">
-        <v>44066</v>
+        <v>44057</v>
       </c>
       <c r="F46" s="45">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="56">
         <v>0</v>
@@ -4048,95 +4069,106 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="49"/>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6"/>
-      <c r="AO46" s="47"/>
+      <c r="AO46" s="6"/>
       <c r="AP46" s="49"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
+      <c r="AQ46" s="49"/>
+      <c r="AR46" s="49"/>
       <c r="AS46" s="6"/>
       <c r="AT46" s="6"/>
-      <c r="AU46" s="6"/>
-      <c r="AV46" s="6"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="6"/>
+      <c r="AU46" s="49"/>
+      <c r="AV46" s="49"/>
+      <c r="AW46" s="49"/>
+      <c r="AX46" s="49"/>
       <c r="AY46" s="48"/>
     </row>
     <row r="47" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="42"/>
+      <c r="B47" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="44">
+        <v>44054</v>
+      </c>
+      <c r="E47" s="44">
+        <v>44057</v>
+      </c>
+      <c r="F47" s="45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G47" s="56">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="49"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="49"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="49"/>
+      <c r="AV47" s="49"/>
+      <c r="AW47" s="49"/>
+      <c r="AX47" s="49"/>
+      <c r="AY47" s="48"/>
     </row>
     <row r="48" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>3</v>
+      <c r="B48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="44">
-        <v>44066</v>
+        <v>44057</v>
       </c>
       <c r="E48" s="44">
-        <v>44069</v>
+        <v>44058</v>
       </c>
       <c r="F48" s="45">
         <f>E48-D48</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="56">
         <v>0</v>
@@ -4169,39 +4201,39 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-      <c r="AJ48" s="49"/>
+      <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="49"/>
       <c r="AN48" s="6"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="47"/>
-      <c r="AQ48" s="47"/>
-      <c r="AR48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="49"/>
       <c r="AS48" s="6"/>
       <c r="AT48" s="6"/>
-      <c r="AU48" s="6"/>
+      <c r="AU48" s="49"/>
       <c r="AV48" s="49"/>
       <c r="AW48" s="49"/>
       <c r="AX48" s="49"/>
       <c r="AY48" s="48"/>
     </row>
-    <row r="49" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="15" t="s">
-        <v>51</v>
+      <c r="B49" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D49" s="44">
-        <v>44069</v>
+        <v>44058</v>
       </c>
       <c r="E49" s="44">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="F49" s="45">
-        <f t="shared" ref="F49:F54" si="3">E49-D49</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G49" s="56">
@@ -4236,38 +4268,37 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="49"/>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="6"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="49"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
       <c r="AQ49" s="6"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="49"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
       <c r="AU49" s="6"/>
-      <c r="AV49" s="49"/>
-      <c r="AW49" s="49"/>
-      <c r="AX49" s="49"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
       <c r="AY49" s="48"/>
     </row>
-    <row r="50" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="44">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="E50" s="44">
-        <v>44075</v>
+        <v>44064</v>
       </c>
       <c r="F50" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G50" s="56">
@@ -4303,38 +4334,38 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="6"/>
       <c r="AQ50" s="6"/>
       <c r="AR50" s="6"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="47"/>
-      <c r="AU50" s="49"/>
-      <c r="AV50" s="49"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="49"/>
+      <c r="AS50" s="6"/>
+      <c r="AT50" s="6"/>
+      <c r="AU50" s="6"/>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="6"/>
       <c r="AY50" s="48"/>
     </row>
-    <row r="51" spans="1:51" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D51" s="44">
-        <v>44075</v>
+        <v>44064</v>
       </c>
       <c r="E51" s="44">
-        <v>44078</v>
+        <v>44066</v>
       </c>
       <c r="F51" s="45">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="G51" s="56">
         <v>0</v>
@@ -4369,38 +4400,38 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
-      <c r="AL51" s="49"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="49"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="47"/>
       <c r="AP51" s="49"/>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6"/>
-      <c r="AS51" s="49"/>
-      <c r="AT51" s="49"/>
-      <c r="AU51" s="47"/>
-      <c r="AV51" s="47"/>
-      <c r="AW51" s="49"/>
-      <c r="AX51" s="49"/>
+      <c r="AS51" s="6"/>
+      <c r="AT51" s="6"/>
+      <c r="AU51" s="6"/>
+      <c r="AV51" s="6"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
       <c r="AY51" s="48"/>
     </row>
-    <row r="52" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="15" t="s">
-        <v>54</v>
+      <c r="B52" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D52" s="44">
-        <v>44078</v>
+        <v>44064</v>
       </c>
       <c r="E52" s="44">
-        <v>44081</v>
+        <v>44066</v>
       </c>
       <c r="F52" s="45">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="G52" s="56">
         <v>0</v>
@@ -4433,105 +4464,94 @@
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-      <c r="AJ52" s="49"/>
-      <c r="AK52" s="49"/>
-      <c r="AL52" s="49"/>
-      <c r="AM52" s="49"/>
-      <c r="AN52" s="49"/>
-      <c r="AO52" s="49"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="47"/>
       <c r="AP52" s="49"/>
       <c r="AQ52" s="6"/>
       <c r="AR52" s="6"/>
-      <c r="AS52" s="49"/>
+      <c r="AS52" s="6"/>
       <c r="AT52" s="6"/>
-      <c r="AU52" s="49"/>
-      <c r="AV52" s="47"/>
-      <c r="AW52" s="47"/>
-      <c r="AX52" s="49"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
       <c r="AY52" s="48"/>
     </row>
     <row r="53" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="44">
-        <v>44081</v>
-      </c>
-      <c r="E53" s="44">
-        <v>44084</v>
-      </c>
-      <c r="F53" s="45">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G53" s="56">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="49"/>
-      <c r="AN53" s="49"/>
-      <c r="AO53" s="49"/>
-      <c r="AP53" s="49"/>
-      <c r="AQ53" s="6"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="49"/>
-      <c r="AT53" s="6"/>
-      <c r="AU53" s="6"/>
-      <c r="AV53" s="49"/>
-      <c r="AW53" s="49"/>
-      <c r="AX53" s="47"/>
-      <c r="AY53" s="48"/>
+      <c r="B53" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41"/>
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+      <c r="AO53" s="41"/>
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="41"/>
+      <c r="AV53" s="41"/>
+      <c r="AW53" s="41"/>
+      <c r="AX53" s="41"/>
+      <c r="AY53" s="42"/>
     </row>
     <row r="54" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>20</v>
+      <c r="B54" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D54" s="44">
-        <v>44084</v>
+        <v>44066</v>
       </c>
       <c r="E54" s="44">
-        <v>44087</v>
+        <v>44069</v>
       </c>
       <c r="F54" s="45">
-        <f t="shared" si="3"/>
+        <f>E54-D54</f>
         <v>3</v>
       </c>
       <c r="G54" s="56">
@@ -4565,448 +4585,480 @@
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
-      <c r="AJ54" s="6"/>
+      <c r="AJ54" s="49"/>
       <c r="AK54" s="6"/>
-      <c r="AL54" s="49"/>
-      <c r="AM54" s="49"/>
-      <c r="AN54" s="49"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6"/>
       <c r="AO54" s="49"/>
-      <c r="AP54" s="49"/>
-      <c r="AQ54" s="49"/>
-      <c r="AR54" s="49"/>
-      <c r="AS54" s="49"/>
+      <c r="AP54" s="47"/>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
-      <c r="AV54" s="6"/>
+      <c r="AV54" s="49"/>
       <c r="AW54" s="49"/>
       <c r="AX54" s="49"/>
-      <c r="AY54" s="59"/>
-    </row>
-    <row r="55" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY54" s="48"/>
+    </row>
+    <row r="55" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="44">
+        <v>44069</v>
+      </c>
+      <c r="E55" s="44">
+        <v>44072</v>
+      </c>
+      <c r="F55" s="45">
+        <f t="shared" ref="F55:F60" si="3">E55-D55</f>
+        <v>3</v>
+      </c>
+      <c r="G55" s="56">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="49"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="49"/>
+      <c r="AP55" s="49"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="47"/>
+      <c r="AS55" s="47"/>
+      <c r="AT55" s="49"/>
+      <c r="AU55" s="6"/>
+      <c r="AV55" s="49"/>
+      <c r="AW55" s="49"/>
+      <c r="AX55" s="49"/>
+      <c r="AY55" s="48"/>
+    </row>
+    <row r="56" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="44">
+        <v>44072</v>
+      </c>
+      <c r="E56" s="44">
+        <v>44075</v>
+      </c>
+      <c r="F56" s="45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G56" s="56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="49"/>
+      <c r="AM56" s="49"/>
+      <c r="AN56" s="49"/>
+      <c r="AO56" s="49"/>
+      <c r="AP56" s="49"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="49"/>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="49"/>
+      <c r="AV56" s="49"/>
+      <c r="AW56" s="49"/>
+      <c r="AX56" s="49"/>
+      <c r="AY56" s="48"/>
+    </row>
+    <row r="57" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="44">
+        <v>44075</v>
+      </c>
+      <c r="E57" s="44">
+        <v>44078</v>
+      </c>
+      <c r="F57" s="45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G57" s="56">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="49"/>
+      <c r="AN57" s="49"/>
+      <c r="AO57" s="49"/>
+      <c r="AP57" s="49"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="6"/>
+      <c r="AS57" s="49"/>
+      <c r="AT57" s="49"/>
+      <c r="AU57" s="47"/>
+      <c r="AV57" s="47"/>
+      <c r="AW57" s="49"/>
+      <c r="AX57" s="49"/>
+      <c r="AY57" s="48"/>
+    </row>
+    <row r="58" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="44">
+        <v>44078</v>
+      </c>
+      <c r="E58" s="44">
+        <v>44081</v>
+      </c>
+      <c r="F58" s="45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G58" s="56">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="49"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="49"/>
+      <c r="AN58" s="49"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="49"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="49"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="49"/>
+      <c r="AV58" s="47"/>
+      <c r="AW58" s="47"/>
+      <c r="AX58" s="49"/>
+      <c r="AY58" s="48"/>
+    </row>
+    <row r="59" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="44">
+        <v>44081</v>
+      </c>
+      <c r="E59" s="44">
+        <v>44084</v>
+      </c>
+      <c r="F59" s="45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G59" s="56">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="49"/>
+      <c r="AM59" s="49"/>
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="49"/>
+      <c r="AP59" s="49"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="49"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="49"/>
+      <c r="AW59" s="49"/>
+      <c r="AX59" s="47"/>
+      <c r="AY59" s="48"/>
+    </row>
+    <row r="60" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="44">
+        <v>44084</v>
+      </c>
+      <c r="E60" s="44">
+        <v>44087</v>
+      </c>
+      <c r="F60" s="45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="56">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="49"/>
+      <c r="AM60" s="49"/>
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="49"/>
+      <c r="AP60" s="49"/>
+      <c r="AQ60" s="49"/>
+      <c r="AR60" s="49"/>
+      <c r="AS60" s="49"/>
+      <c r="AT60" s="6"/>
+      <c r="AU60" s="6"/>
+      <c r="AV60" s="6"/>
+      <c r="AW60" s="49"/>
+      <c r="AX60" s="49"/>
+      <c r="AY60" s="59"/>
+    </row>
+    <row r="61" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="63"/>
-      <c r="AM55" s="63"/>
-      <c r="AN55" s="63"/>
-      <c r="AO55" s="63"/>
-      <c r="AP55" s="63"/>
-      <c r="AQ55" s="63"/>
-      <c r="AR55" s="63"/>
-      <c r="AS55" s="63"/>
-      <c r="AT55" s="63"/>
-      <c r="AU55" s="63"/>
-      <c r="AV55" s="63"/>
-      <c r="AW55" s="63"/>
-      <c r="AX55" s="63"/>
-      <c r="AY55" s="64"/>
-    </row>
-    <row r="56" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="13"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="33"/>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
-      <c r="AL56" s="33"/>
-      <c r="AM56" s="33"/>
-      <c r="AN56" s="33"/>
-      <c r="AO56" s="33"/>
-      <c r="AP56" s="33"/>
-      <c r="AQ56" s="33"/>
-      <c r="AR56" s="33"/>
-      <c r="AS56" s="33"/>
-      <c r="AT56" s="33"/>
-      <c r="AU56" s="33"/>
-      <c r="AV56" s="33"/>
-      <c r="AW56" s="33"/>
-      <c r="AX56" s="33"/>
-      <c r="AY56" s="33"/>
-    </row>
-    <row r="57" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
-      <c r="B57" s="13"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="33"/>
-      <c r="AL57" s="33"/>
-      <c r="AM57" s="33"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="33"/>
-      <c r="AQ57" s="33"/>
-      <c r="AR57" s="33"/>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="33"/>
-      <c r="AU57" s="33"/>
-      <c r="AV57" s="33"/>
-      <c r="AW57" s="33"/>
-      <c r="AX57" s="33"/>
-      <c r="AY57" s="33"/>
-    </row>
-    <row r="58" spans="1:51" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="C58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33"/>
-      <c r="AK58" s="33"/>
-      <c r="AL58" s="33"/>
-      <c r="AM58" s="33"/>
-      <c r="AN58" s="33"/>
-      <c r="AO58" s="33"/>
-      <c r="AP58" s="33"/>
-      <c r="AQ58" s="33"/>
-      <c r="AR58" s="33"/>
-      <c r="AS58" s="33"/>
-      <c r="AT58" s="33"/>
-      <c r="AU58" s="33"/>
-      <c r="AV58" s="33"/>
-      <c r="AW58" s="33"/>
-      <c r="AX58" s="33"/>
-      <c r="AY58" s="33"/>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="C59" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="30">
-        <f>D10</f>
-        <v>43997</v>
-      </c>
-      <c r="E59" s="31">
-        <f>E13</f>
-        <v>44001</v>
-      </c>
-      <c r="F59" s="7">
-        <f>E59-D59</f>
-        <v>4</v>
-      </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33"/>
-      <c r="AK59" s="33"/>
-      <c r="AL59" s="33"/>
-      <c r="AM59" s="33"/>
-      <c r="AN59" s="33"/>
-      <c r="AO59" s="33"/>
-      <c r="AP59" s="33"/>
-      <c r="AQ59" s="33"/>
-      <c r="AR59" s="33"/>
-      <c r="AS59" s="33"/>
-      <c r="AT59" s="33"/>
-      <c r="AU59" s="33"/>
-      <c r="AV59" s="33"/>
-      <c r="AW59" s="33"/>
-      <c r="AX59" s="33"/>
-      <c r="AY59" s="33"/>
-    </row>
-    <row r="60" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="C60" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30">
-        <f>D18</f>
-        <v>44006</v>
-      </c>
-      <c r="E60" s="30">
-        <f>E23</f>
-        <v>44018</v>
-      </c>
-      <c r="F60" s="23">
-        <f>E60-D60</f>
-        <v>12</v>
-      </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="33"/>
-      <c r="AN60" s="33"/>
-      <c r="AO60" s="33"/>
-      <c r="AP60" s="33"/>
-      <c r="AQ60" s="33"/>
-      <c r="AR60" s="33"/>
-      <c r="AS60" s="33"/>
-      <c r="AT60" s="33"/>
-      <c r="AU60" s="33"/>
-      <c r="AV60" s="33"/>
-      <c r="AW60" s="33"/>
-      <c r="AX60" s="33"/>
-      <c r="AY60" s="33"/>
-    </row>
-    <row r="61" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="C61" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="30">
-        <f>D20</f>
-        <v>44010</v>
-      </c>
-      <c r="E61" s="30">
-        <f>E46</f>
-        <v>44066</v>
-      </c>
-      <c r="F61" s="23">
-        <f>E61-D61</f>
-        <v>56</v>
-      </c>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="33"/>
-      <c r="AL61" s="33"/>
-      <c r="AM61" s="33"/>
-      <c r="AN61" s="33"/>
-      <c r="AO61" s="33"/>
-      <c r="AP61" s="33"/>
-      <c r="AQ61" s="33"/>
-      <c r="AR61" s="33"/>
-      <c r="AS61" s="33"/>
-      <c r="AT61" s="33"/>
-      <c r="AU61" s="33"/>
-      <c r="AV61" s="33"/>
-      <c r="AW61" s="33"/>
-      <c r="AX61" s="33"/>
-      <c r="AY61" s="33"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="63"/>
+      <c r="AC61" s="63"/>
+      <c r="AD61" s="63"/>
+      <c r="AE61" s="63"/>
+      <c r="AF61" s="63"/>
+      <c r="AG61" s="63"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="63"/>
+      <c r="AK61" s="63"/>
+      <c r="AL61" s="63"/>
+      <c r="AM61" s="63"/>
+      <c r="AN61" s="63"/>
+      <c r="AO61" s="63"/>
+      <c r="AP61" s="63"/>
+      <c r="AQ61" s="63"/>
+      <c r="AR61" s="63"/>
+      <c r="AS61" s="63"/>
+      <c r="AT61" s="63"/>
+      <c r="AU61" s="63"/>
+      <c r="AV61" s="63"/>
+      <c r="AW61" s="63"/>
+      <c r="AX61" s="63"/>
+      <c r="AY61" s="64"/>
     </row>
     <row r="62" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
-      <c r="C62" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="30">
-        <f>D48</f>
-        <v>44066</v>
-      </c>
-      <c r="E62" s="30">
-        <f>E54</f>
-        <v>44087</v>
-      </c>
-      <c r="F62" s="23">
-        <f>E62-D62</f>
-        <v>21</v>
-      </c>
+      <c r="B62" s="13"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
@@ -5053,17 +5105,12 @@
       <c r="AX62" s="33"/>
       <c r="AY62" s="33"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
-      <c r="C63" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="67">
-        <f>E54</f>
-        <v>44087</v>
-      </c>
-      <c r="E63" s="68"/>
-      <c r="F63" s="10"/>
+      <c r="B63" s="13"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
@@ -5110,12 +5157,20 @@
       <c r="AX63" s="33"/>
       <c r="AY63" s="33"/>
     </row>
-    <row r="64" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
-      <c r="B64" s="13"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="C64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
@@ -5162,12 +5217,23 @@
       <c r="AX64" s="33"/>
       <c r="AY64" s="33"/>
     </row>
-    <row r="65" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
-      <c r="B65" s="13"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
+      <c r="C65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="30">
+        <f>D10</f>
+        <v>43997</v>
+      </c>
+      <c r="E65" s="31">
+        <f>E13</f>
+        <v>44001</v>
+      </c>
+      <c r="F65" s="7">
+        <f>E65-D65</f>
+        <v>4</v>
+      </c>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
@@ -5216,10 +5282,21 @@
     </row>
     <row r="66" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
-      <c r="B66" s="13"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
+      <c r="C66" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30">
+        <f>D18</f>
+        <v>44006</v>
+      </c>
+      <c r="E66" s="30">
+        <f>E23</f>
+        <v>44018</v>
+      </c>
+      <c r="F66" s="23">
+        <f>E66-D66</f>
+        <v>12</v>
+      </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
@@ -5268,10 +5345,21 @@
     </row>
     <row r="67" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
-      <c r="B67" s="13"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="C67" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="30">
+        <f>D20</f>
+        <v>44010</v>
+      </c>
+      <c r="E67" s="30">
+        <f>E51</f>
+        <v>44066</v>
+      </c>
+      <c r="F67" s="23">
+        <f>E67-D67</f>
+        <v>56</v>
+      </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="33"/>
@@ -5320,10 +5408,21 @@
     </row>
     <row r="68" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
-      <c r="B68" s="13"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="C68" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="30">
+        <f>D54</f>
+        <v>44066</v>
+      </c>
+      <c r="E68" s="30">
+        <f>E60</f>
+        <v>44087</v>
+      </c>
+      <c r="F68" s="23">
+        <f>E68-D68</f>
+        <v>21</v>
+      </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="33"/>
@@ -5370,12 +5469,17 @@
       <c r="AX68" s="33"/>
       <c r="AY68" s="33"/>
     </row>
-    <row r="69" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
-      <c r="B69" s="13"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
+      <c r="C69" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="67">
+        <f>E60</f>
+        <v>44087</v>
+      </c>
+      <c r="E69" s="68"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
       <c r="I69" s="33"/>
@@ -6983,22 +7087,316 @@
       <c r="AY99" s="33"/>
     </row>
     <row r="100" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
       <c r="B100" s="13"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33"/>
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33"/>
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="33"/>
+      <c r="AI100" s="33"/>
+      <c r="AJ100" s="33"/>
+      <c r="AK100" s="33"/>
+      <c r="AL100" s="33"/>
+      <c r="AM100" s="33"/>
+      <c r="AN100" s="33"/>
+      <c r="AO100" s="33"/>
+      <c r="AP100" s="33"/>
+      <c r="AQ100" s="33"/>
+      <c r="AR100" s="33"/>
+      <c r="AS100" s="33"/>
+      <c r="AT100" s="33"/>
+      <c r="AU100" s="33"/>
+      <c r="AV100" s="33"/>
+      <c r="AW100" s="33"/>
+      <c r="AX100" s="33"/>
+      <c r="AY100" s="33"/>
     </row>
     <row r="101" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
       <c r="B101" s="13"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="33"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
+      <c r="W101" s="33"/>
+      <c r="X101" s="33"/>
+      <c r="Y101" s="33"/>
+      <c r="Z101" s="33"/>
+      <c r="AA101" s="33"/>
+      <c r="AB101" s="33"/>
+      <c r="AC101" s="33"/>
+      <c r="AD101" s="33"/>
+      <c r="AE101" s="33"/>
+      <c r="AF101" s="33"/>
+      <c r="AG101" s="33"/>
+      <c r="AH101" s="33"/>
+      <c r="AI101" s="33"/>
+      <c r="AJ101" s="33"/>
+      <c r="AK101" s="33"/>
+      <c r="AL101" s="33"/>
+      <c r="AM101" s="33"/>
+      <c r="AN101" s="33"/>
+      <c r="AO101" s="33"/>
+      <c r="AP101" s="33"/>
+      <c r="AQ101" s="33"/>
+      <c r="AR101" s="33"/>
+      <c r="AS101" s="33"/>
+      <c r="AT101" s="33"/>
+      <c r="AU101" s="33"/>
+      <c r="AV101" s="33"/>
+      <c r="AW101" s="33"/>
+      <c r="AX101" s="33"/>
+      <c r="AY101" s="33"/>
     </row>
     <row r="102" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
       <c r="B102" s="13"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
+      <c r="V102" s="33"/>
+      <c r="W102" s="33"/>
+      <c r="X102" s="33"/>
+      <c r="Y102" s="33"/>
+      <c r="Z102" s="33"/>
+      <c r="AA102" s="33"/>
+      <c r="AB102" s="33"/>
+      <c r="AC102" s="33"/>
+      <c r="AD102" s="33"/>
+      <c r="AE102" s="33"/>
+      <c r="AF102" s="33"/>
+      <c r="AG102" s="33"/>
+      <c r="AH102" s="33"/>
+      <c r="AI102" s="33"/>
+      <c r="AJ102" s="33"/>
+      <c r="AK102" s="33"/>
+      <c r="AL102" s="33"/>
+      <c r="AM102" s="33"/>
+      <c r="AN102" s="33"/>
+      <c r="AO102" s="33"/>
+      <c r="AP102" s="33"/>
+      <c r="AQ102" s="33"/>
+      <c r="AR102" s="33"/>
+      <c r="AS102" s="33"/>
+      <c r="AT102" s="33"/>
+      <c r="AU102" s="33"/>
+      <c r="AV102" s="33"/>
+      <c r="AW102" s="33"/>
+      <c r="AX102" s="33"/>
+      <c r="AY102" s="33"/>
     </row>
     <row r="103" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
       <c r="B103" s="13"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="33"/>
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="33"/>
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="33"/>
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="33"/>
+      <c r="AI103" s="33"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="33"/>
+      <c r="AL103" s="33"/>
+      <c r="AM103" s="33"/>
+      <c r="AN103" s="33"/>
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="33"/>
+      <c r="AQ103" s="33"/>
+      <c r="AR103" s="33"/>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="33"/>
+      <c r="AU103" s="33"/>
+      <c r="AV103" s="33"/>
+      <c r="AW103" s="33"/>
+      <c r="AX103" s="33"/>
+      <c r="AY103" s="33"/>
     </row>
     <row r="104" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
       <c r="B104" s="13"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="33"/>
+      <c r="X104" s="33"/>
+      <c r="Y104" s="33"/>
+      <c r="Z104" s="33"/>
+      <c r="AA104" s="33"/>
+      <c r="AB104" s="33"/>
+      <c r="AC104" s="33"/>
+      <c r="AD104" s="33"/>
+      <c r="AE104" s="33"/>
+      <c r="AF104" s="33"/>
+      <c r="AG104" s="33"/>
+      <c r="AH104" s="33"/>
+      <c r="AI104" s="33"/>
+      <c r="AJ104" s="33"/>
+      <c r="AK104" s="33"/>
+      <c r="AL104" s="33"/>
+      <c r="AM104" s="33"/>
+      <c r="AN104" s="33"/>
+      <c r="AO104" s="33"/>
+      <c r="AP104" s="33"/>
+      <c r="AQ104" s="33"/>
+      <c r="AR104" s="33"/>
+      <c r="AS104" s="33"/>
+      <c r="AT104" s="33"/>
+      <c r="AU104" s="33"/>
+      <c r="AV104" s="33"/>
+      <c r="AW104" s="33"/>
+      <c r="AX104" s="33"/>
+      <c r="AY104" s="33"/>
     </row>
     <row r="105" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
       <c r="B105" s="13"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+      <c r="W105" s="33"/>
+      <c r="X105" s="33"/>
+      <c r="Y105" s="33"/>
+      <c r="Z105" s="33"/>
+      <c r="AA105" s="33"/>
+      <c r="AB105" s="33"/>
+      <c r="AC105" s="33"/>
+      <c r="AD105" s="33"/>
+      <c r="AE105" s="33"/>
+      <c r="AF105" s="33"/>
+      <c r="AG105" s="33"/>
+      <c r="AH105" s="33"/>
+      <c r="AI105" s="33"/>
+      <c r="AJ105" s="33"/>
+      <c r="AK105" s="33"/>
+      <c r="AL105" s="33"/>
+      <c r="AM105" s="33"/>
+      <c r="AN105" s="33"/>
+      <c r="AO105" s="33"/>
+      <c r="AP105" s="33"/>
+      <c r="AQ105" s="33"/>
+      <c r="AR105" s="33"/>
+      <c r="AS105" s="33"/>
+      <c r="AT105" s="33"/>
+      <c r="AU105" s="33"/>
+      <c r="AV105" s="33"/>
+      <c r="AW105" s="33"/>
+      <c r="AX105" s="33"/>
+      <c r="AY105" s="33"/>
     </row>
     <row r="106" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
@@ -9757,9 +10155,27 @@
     <row r="1024" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B1024" s="13"/>
     </row>
+    <row r="1025" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1025" s="13"/>
+    </row>
+    <row r="1026" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1026" s="13"/>
+    </row>
+    <row r="1027" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1027" s="13"/>
+    </row>
+    <row r="1028" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1028" s="13"/>
+    </row>
+    <row r="1029" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1029" s="13"/>
+    </row>
+    <row r="1030" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1030" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Proyecto GCM\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433D67F-FA6A-4998-A48D-23F8C91DC1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -160,15 +161,6 @@
     <t xml:space="preserve">Modulo de Requisitos: Elaboracion de servicios </t>
   </si>
   <si>
-    <t>Modulo de Prototipado: Frontend</t>
-  </si>
-  <si>
-    <t>Modulo de Prototipado: Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo de Prototipado: Elaboracion de servicios </t>
-  </si>
-  <si>
     <t>Modulo de Validacion: Frontend</t>
   </si>
   <si>
@@ -223,9 +215,6 @@
     <t>Modulo de Requisitos: Desarrollo de la base de datos</t>
   </si>
   <si>
-    <t>Modulo de Prototipado: Desarrollo de la base de datos</t>
-  </si>
-  <si>
     <t>Modulo de Validacion: Desarrollo de la base de datos</t>
   </si>
   <si>
@@ -241,16 +230,28 @@
     <t xml:space="preserve">Modulo de Requisitos: Integración </t>
   </si>
   <si>
-    <t xml:space="preserve">Modulo de Prototipado: Integración </t>
+    <t xml:space="preserve">Modulo de Validacion: Integración </t>
   </si>
   <si>
-    <t xml:space="preserve">Modulo de Validacion: Integración </t>
+    <t>Modulo de Documentacion: Desarrollo de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Documentacion: Elaboracion de servicios </t>
+  </si>
+  <si>
+    <t>Modulo de Documentacion: Frontend</t>
+  </si>
+  <si>
+    <t>Modulo de Documentacion: Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Documentacion: Integración </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
@@ -325,7 +326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,14 +826,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,19 +1052,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="58.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
@@ -1360,7 +1370,7 @@
       </c>
       <c r="C6" s="21">
         <f>(SUM(G10:G60)/38)</f>
-        <v>0.73684210526315785</v>
+        <v>0.9447368421052631</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1480,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" s="39">
         <v>43997</v>
@@ -1871,7 +1881,7 @@
     <row r="13" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>20</v>
@@ -2388,7 +2398,7 @@
     <row r="21" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>19</v>
@@ -2586,7 +2596,7 @@
     <row r="24" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>23</v>
@@ -2839,7 +2849,7 @@
     <row r="28" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>14</v>
@@ -3102,7 +3112,7 @@
     <row r="32" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>16</v>
@@ -3168,7 +3178,7 @@
     <row r="33" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>23</v>
@@ -3431,7 +3441,7 @@
     <row r="37" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>26</v>
@@ -3497,7 +3507,7 @@
     <row r="38" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>19</v>
@@ -3643,8 +3653,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G40" s="56">
-        <v>0</v>
+      <c r="G40" s="46">
+        <v>1</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3709,8 +3719,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G41" s="56">
-        <v>0</v>
+      <c r="G41" s="46">
+        <v>1</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3760,7 +3770,7 @@
     <row r="42" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>20</v>
@@ -3775,8 +3785,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G42" s="56">
-        <v>0</v>
+      <c r="G42" s="46">
+        <v>1</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3826,7 +3836,7 @@
     <row r="43" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>14</v>
@@ -3841,8 +3851,8 @@
         <f>E43-D43</f>
         <v>1</v>
       </c>
-      <c r="G43" s="56">
-        <v>0</v>
+      <c r="G43" s="46">
+        <v>1</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3892,7 +3902,7 @@
     <row r="44" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="17" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C44" s="43" t="s">
         <v>14</v>
@@ -3907,8 +3917,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G44" s="56">
-        <v>0</v>
+      <c r="G44" s="46">
+        <v>1</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3957,7 +3967,7 @@
     </row>
     <row r="45" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C45" s="43" t="s">
         <v>26</v>
@@ -3972,8 +3982,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G45" s="56">
-        <v>0</v>
+      <c r="G45" s="68">
+        <v>0.9</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -4023,7 +4033,7 @@
     <row r="46" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>14</v>
@@ -4038,8 +4048,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G46" s="56">
-        <v>0</v>
+      <c r="G46" s="68">
+        <v>0.7</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -4089,7 +4099,7 @@
     <row r="47" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>26</v>
@@ -4104,8 +4114,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G47" s="56">
-        <v>0</v>
+      <c r="G47" s="68">
+        <v>0.5</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -4155,7 +4165,7 @@
     <row r="48" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>23</v>
@@ -4171,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -4221,7 +4231,7 @@
     <row r="49" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>23</v>
@@ -4237,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -4286,7 +4296,7 @@
     </row>
     <row r="50" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>20</v>
@@ -4352,7 +4362,7 @@
     <row r="51" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>23</v>
@@ -4417,8 +4427,8 @@
     </row>
     <row r="52" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="69" t="s">
-        <v>71</v>
+      <c r="B52" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>20</v>
@@ -4484,7 +4494,7 @@
     <row r="53" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="41"/>
@@ -4539,7 +4549,7 @@
     <row r="54" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>3</v>
@@ -4605,7 +4615,7 @@
     <row r="55" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>14</v>
@@ -4671,7 +4681,7 @@
     <row r="56" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>19</v>
@@ -4737,7 +4747,7 @@
     <row r="57" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>16</v>
@@ -4803,7 +4813,7 @@
     <row r="58" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>23</v>
@@ -4869,7 +4879,7 @@
     <row r="59" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>26</v>
@@ -4935,7 +4945,7 @@
     <row r="60" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C60" s="43" t="s">
         <v>20</v>
@@ -5001,7 +5011,7 @@
     <row r="61" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
@@ -5409,7 +5419,7 @@
     <row r="68" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="C68" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D68" s="30">
         <f>D54</f>
@@ -5472,13 +5482,13 @@
     <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="C69" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="67">
+        <v>54</v>
+      </c>
+      <c r="D69" s="69">
         <f>E60</f>
         <v>44087</v>
       </c>
-      <c r="E69" s="68"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="10"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>

--- a/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
+++ b/Proyectos/Tool de Identificación de Requisitos de Software/Gestion/TIRS-C.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Proyecto GCM\soft-consulting\Proyectos\Tool de Identificación de Requisitos de Software\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433D67F-FA6A-4998-A48D-23F8C91DC1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -251,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
@@ -1052,14 +1051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1369,7 @@
       </c>
       <c r="C6" s="21">
         <f>(SUM(G10:G60)/38)</f>
-        <v>0.9447368421052631</v>
+        <v>0.9921052631578946</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4048,8 +4047,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G46" s="68">
-        <v>0.7</v>
+      <c r="G46" s="46">
+        <v>1</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -4115,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="68">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -4180,8 +4179,8 @@
         <f>E48-D48</f>
         <v>1</v>
       </c>
-      <c r="G48" s="56">
-        <v>0.4</v>
+      <c r="G48" s="46">
+        <v>1</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -4246,8 +4245,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G49" s="56">
-        <v>0.4</v>
+      <c r="G49" s="68">
+        <v>0.9</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
